--- a/Wikipedia-Biologica-02/Gerenciamento de Projeto/WBio - Planejamento e Controle do Projeto.xlsx
+++ b/Wikipedia-Biologica-02/Gerenciamento de Projeto/WBio - Planejamento e Controle do Projeto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\OneDrive\Área de Trabalho\Projetos IF\Wikipedia Biologica\WBio\Wikipedia-Biologica-02\Gerenciamento de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B34E21A-6DC5-4547-9460-997CE24D72B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454148E9-555A-4CC1-A526-82524B4E1618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipe" sheetId="10" r:id="rId1"/>
@@ -29,8 +29,19 @@
     <definedName name="Restante2" localSheetId="8">OFFSET(#REF!,0,0,1,COUNT(#REF!))</definedName>
     <definedName name="Restante2">OFFSET(#REF!,0,0,1,COUNT(#REF!))</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1909,7 +1920,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="298">
   <si>
     <t>Iniciação</t>
   </si>
@@ -2874,6 +2885,21 @@
   </si>
   <si>
     <t>UC7 - Verificar animal</t>
+  </si>
+  <si>
+    <t>UC8 - Login</t>
+  </si>
+  <si>
+    <t>Entregue</t>
+  </si>
+  <si>
+    <t>UC07</t>
+  </si>
+  <si>
+    <t>RM1 - Adicionar login no sistema para admin + curador</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
 </sst>
 </file>
@@ -3599,7 +3625,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3623,10 +3649,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3666,11 +3692,6 @@
     <xf numFmtId="9" fontId="20" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3697,7 +3718,7 @@
     <xf numFmtId="9" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3709,7 +3730,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3727,7 +3747,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3745,18 +3765,12 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3832,11 +3846,11 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3927,11 +3941,11 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3997,9 +4011,6 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -4014,7 +4025,7 @@
     <xf numFmtId="1" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4031,7 +4042,7 @@
     <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4113,6 +4124,21 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4134,9 +4160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4148,18 +4171,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4217,7 +4228,52 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="3" builtinId="3"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="54"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="54"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="54"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4271,17 +4327,9 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="54"/>
+        <color indexed="9"/>
       </font>
     </dxf>
     <dxf>
@@ -4297,13 +4345,6 @@
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="54"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
       </font>
     </dxf>
     <dxf>
@@ -6279,9 +6320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6319,9 +6360,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6354,26 +6395,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6406,26 +6430,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6629,18 +6636,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="146" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -6660,7 +6667,7 @@
       <c r="B4" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="144" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6671,7 +6678,7 @@
       <c r="B5" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="150"/>
+      <c r="C5" s="144"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -6680,7 +6687,7 @@
       <c r="B6" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="C6" s="150"/>
+      <c r="C6" s="144"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -6689,7 +6696,7 @@
       <c r="B7" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="144" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6773,25 +6780,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
     </row>
     <row r="2" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="147">
+      <c r="B4" s="141">
         <f>'Backlog Produto'!$D$67</f>
         <v>219</v>
       </c>
@@ -6800,13 +6807,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="53" t="s">
         <v>189</v>
       </c>
       <c r="B5" s="26">
         <v>0.2</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="53" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6817,28 +6824,28 @@
       <c r="B6" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="145">
+      <c r="B8" s="139">
         <f>B6*B7*2</f>
         <v>48</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6846,7 +6853,7 @@
       <c r="A9" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="144">
+      <c r="B9" s="138">
         <f>B11/2</f>
         <v>5.4750000000000005</v>
       </c>
@@ -6855,26 +6862,26 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="146">
+      <c r="B10" s="140">
         <f>B4+(B4*B5)</f>
         <v>262.8</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="145">
+      <c r="B11" s="139">
         <f>B10/B8*2</f>
         <v>10.950000000000001</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6882,7 +6889,7 @@
       <c r="A12" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="B12" s="144">
+      <c r="B12" s="138">
         <f>B11/4</f>
         <v>2.7375000000000003</v>
       </c>
@@ -6891,23 +6898,23 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="149">
+      <c r="B15" s="143">
         <v>25</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5">
@@ -6917,7 +6924,7 @@
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="26">
@@ -6926,7 +6933,7 @@
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="6">
@@ -6939,14 +6946,14 @@
       <c r="A19" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="B19" s="148">
+      <c r="B19" s="142">
         <f>B16+B18</f>
         <v>7227</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="26">
@@ -6955,7 +6962,7 @@
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="7">
@@ -6968,7 +6975,7 @@
       <c r="A22" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B22" s="148">
+      <c r="B22" s="142">
         <f>B19+B21</f>
         <v>8672.4</v>
       </c>
@@ -6991,15 +6998,15 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11" style="48" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="22" customWidth="1"/>
     <col min="3" max="3" width="69" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="124" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="119" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.7109375" style="22" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="22" bestFit="1" customWidth="1"/>
@@ -7010,1214 +7017,1226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="F1" s="158" t="s">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="F1" s="152" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="154" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="F2" s="162" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="F2" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="133" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="133" t="s">
         <v>218</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="134" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="164" t="s">
+      <c r="H3" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
     </row>
     <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="131" t="s">
+      <c r="B4" s="150"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="124" t="s">
         <v>224</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="126" t="s">
         <v>220</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="126" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="126" t="s">
         <v>222</v>
       </c>
-      <c r="K4" s="136" t="s">
+      <c r="K4" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="L4" s="131" t="s">
+      <c r="L4" s="126" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="126">
+      <c r="A5" s="121">
         <v>1</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D5" s="128">
         <v>2</v>
       </c>
-      <c r="F5" s="127">
+      <c r="F5" s="122">
         <v>1</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="117" t="s">
         <v>286</v>
       </c>
-      <c r="H5" s="130">
+      <c r="H5" s="125">
         <v>5</v>
       </c>
-      <c r="I5" s="130">
+      <c r="I5" s="125">
         <v>5</v>
       </c>
-      <c r="J5" s="130">
+      <c r="J5" s="125">
         <v>3</v>
       </c>
-      <c r="K5" s="130">
+      <c r="K5" s="125">
         <v>5</v>
       </c>
-      <c r="L5" s="132">
+      <c r="L5" s="127">
         <f>SUM(H5:K5)</f>
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="126">
+      <c r="A6" s="121">
         <v>2</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="128">
         <v>2</v>
       </c>
-      <c r="F6" s="127">
+      <c r="F6" s="122">
         <v>2</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="117" t="s">
         <v>287</v>
       </c>
-      <c r="H6" s="130">
+      <c r="H6" s="125">
         <v>5</v>
       </c>
-      <c r="I6" s="130">
+      <c r="I6" s="125">
         <v>5</v>
       </c>
-      <c r="J6" s="130">
+      <c r="J6" s="125">
         <v>3</v>
       </c>
-      <c r="K6" s="130">
+      <c r="K6" s="125">
         <v>5</v>
       </c>
-      <c r="L6" s="132">
+      <c r="L6" s="127">
         <f t="shared" ref="L6:L19" si="0">SUM(H6:K6)</f>
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="126">
+      <c r="A7" s="121">
         <v>3</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="133">
+      <c r="D7" s="128">
         <v>2</v>
       </c>
-      <c r="F7" s="127">
+      <c r="F7" s="122">
         <v>3</v>
       </c>
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="117" t="s">
         <v>288</v>
       </c>
-      <c r="H7" s="130">
+      <c r="H7" s="125">
         <v>5</v>
       </c>
-      <c r="I7" s="130">
+      <c r="I7" s="125">
         <v>5</v>
       </c>
-      <c r="J7" s="130">
+      <c r="J7" s="125">
         <v>3</v>
       </c>
-      <c r="K7" s="130">
+      <c r="K7" s="125">
         <v>5</v>
       </c>
-      <c r="L7" s="132">
+      <c r="L7" s="127">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="126">
+      <c r="A8" s="121">
         <v>4</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="133">
+      <c r="D8" s="128">
         <v>2</v>
       </c>
-      <c r="F8" s="127">
+      <c r="F8" s="122">
         <v>4</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="117" t="s">
         <v>289</v>
       </c>
-      <c r="H8" s="130">
+      <c r="H8" s="125">
         <v>5</v>
       </c>
-      <c r="I8" s="130">
+      <c r="I8" s="125">
         <v>5</v>
       </c>
-      <c r="J8" s="130">
+      <c r="J8" s="125">
         <v>3</v>
       </c>
-      <c r="K8" s="130">
+      <c r="K8" s="125">
         <v>5</v>
       </c>
-      <c r="L8" s="132">
+      <c r="L8" s="127">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="126">
+      <c r="A9" s="121">
         <v>5</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="133">
+      <c r="D9" s="128">
         <v>2</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="123">
         <v>5</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="117" t="s">
         <v>290</v>
       </c>
-      <c r="H9" s="130">
+      <c r="H9" s="125">
         <v>6</v>
       </c>
-      <c r="I9" s="130">
+      <c r="I9" s="125">
         <v>4</v>
       </c>
-      <c r="J9" s="130">
+      <c r="J9" s="125">
         <v>2</v>
       </c>
-      <c r="K9" s="130">
+      <c r="K9" s="125">
         <v>6</v>
       </c>
-      <c r="L9" s="132">
+      <c r="L9" s="127">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="126">
+      <c r="A10" s="121">
         <v>6</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="133">
+      <c r="D10" s="128">
         <v>2</v>
       </c>
-      <c r="F10" s="127">
+      <c r="F10" s="122">
         <v>6</v>
       </c>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="117" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="130">
+      <c r="H10" s="125">
         <v>6</v>
       </c>
-      <c r="I10" s="130">
+      <c r="I10" s="125">
         <v>2</v>
       </c>
-      <c r="J10" s="130">
+      <c r="J10" s="125">
         <v>2</v>
       </c>
-      <c r="K10" s="130">
+      <c r="K10" s="125">
         <v>6</v>
       </c>
-      <c r="L10" s="132">
+      <c r="L10" s="127">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="155" t="s">
+      <c r="A11" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="131">
+      <c r="B11" s="150"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="126">
         <f>SUM(D5:D10)</f>
         <v>12</v>
       </c>
-      <c r="F11" s="128">
+      <c r="F11" s="123">
         <v>7</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="117" t="s">
         <v>292</v>
       </c>
-      <c r="H11" s="130">
+      <c r="H11" s="125">
         <v>5</v>
       </c>
-      <c r="I11" s="130">
+      <c r="I11" s="125">
         <v>4</v>
       </c>
-      <c r="J11" s="130">
+      <c r="J11" s="125">
         <v>2</v>
       </c>
-      <c r="K11" s="130">
+      <c r="K11" s="125">
         <v>3</v>
       </c>
-      <c r="L11" s="132">
+      <c r="L11" s="127">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="126">
+      <c r="A12" s="121">
         <v>7</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="133">
+      <c r="D12" s="128">
         <v>1</v>
       </c>
-      <c r="F12" s="128"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="132">
+      <c r="F12" s="123">
+        <v>8</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" s="125">
+        <v>5</v>
+      </c>
+      <c r="I12" s="125">
+        <v>4</v>
+      </c>
+      <c r="J12" s="125">
+        <v>1</v>
+      </c>
+      <c r="K12" s="125">
+        <v>4</v>
+      </c>
+      <c r="L12" s="127">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="121">
+        <v>8</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="128">
+        <v>10</v>
+      </c>
+      <c r="F13" s="123"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="126">
-        <v>8</v>
-      </c>
-      <c r="B13" s="123" t="s">
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="121">
+        <v>9</v>
+      </c>
+      <c r="B14" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="140" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="133">
-        <v>10</v>
-      </c>
-      <c r="F13" s="128"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="132">
+      <c r="C14" s="120" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="128">
+        <v>2</v>
+      </c>
+      <c r="F14" s="123"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="126">
-        <v>9</v>
-      </c>
-      <c r="B14" s="123" t="s">
+    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="121">
+        <v>10</v>
+      </c>
+      <c r="B15" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="125" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="133">
+      <c r="C15" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="128">
         <v>2</v>
       </c>
-      <c r="F14" s="128"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="132">
+      <c r="F15" s="123"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="126">
-        <v>10</v>
-      </c>
-      <c r="B15" s="123" t="s">
+    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="121">
+        <v>11</v>
+      </c>
+      <c r="B16" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="141" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="133">
+      <c r="C16" s="136" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="128">
         <v>2</v>
       </c>
-      <c r="F15" s="128"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="132">
+      <c r="F16" s="123"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="126">
-        <v>11</v>
-      </c>
-      <c r="B16" s="123" t="s">
+    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="121">
+        <v>12</v>
+      </c>
+      <c r="B17" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="142" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="133">
-        <v>2</v>
-      </c>
-      <c r="F16" s="128"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="132">
+      <c r="C17" s="136" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="128">
+        <v>4</v>
+      </c>
+      <c r="F17" s="123"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="126">
-        <v>12</v>
-      </c>
-      <c r="B17" s="123" t="s">
+    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="121">
+        <v>13</v>
+      </c>
+      <c r="B18" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="142" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="133">
-        <v>4</v>
-      </c>
-      <c r="F17" s="128"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="132">
+      <c r="C18" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="128">
+        <v>2</v>
+      </c>
+      <c r="F18" s="123"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="126">
-        <v>13</v>
-      </c>
-      <c r="B18" s="123" t="s">
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="121">
+        <v>14</v>
+      </c>
+      <c r="B19" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="125" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="133">
-        <v>2</v>
-      </c>
-      <c r="F18" s="128"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="132">
+      <c r="C19" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="128">
+        <v>5</v>
+      </c>
+      <c r="F19" s="123"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="126">
-        <v>14</v>
-      </c>
-      <c r="B19" s="123" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="121">
+        <v>15</v>
+      </c>
+      <c r="B20" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="125" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="133">
-        <v>5</v>
-      </c>
-      <c r="F19" s="128"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="132">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="126">
-        <v>15</v>
-      </c>
-      <c r="B20" s="123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="128">
         <v>2</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="126">
+      <c r="A21" s="121">
         <v>16</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="133">
+      <c r="D21" s="128">
         <v>2</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="155" t="s">
+      <c r="A22" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="156"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="131">
+      <c r="B22" s="150"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="126">
         <f>SUM(D12:D21)</f>
         <v>32</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="126">
+      <c r="A23" s="121">
         <v>17</v>
       </c>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="133">
+      <c r="D23" s="128">
         <v>2</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="126">
+      <c r="A24" s="121">
         <v>18</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="135" t="s">
         <v>256</v>
       </c>
-      <c r="D24" s="133">
+      <c r="D24" s="128">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="126">
+      <c r="A25" s="121">
         <v>19</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="133">
+      <c r="D25" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="126">
+      <c r="A26" s="121">
         <v>20</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="136" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="133">
+      <c r="D26" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="126">
+      <c r="A27" s="121">
         <v>21</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="142" t="s">
+      <c r="C27" s="136" t="s">
         <v>246</v>
       </c>
-      <c r="D27" s="133">
+      <c r="D27" s="128">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="126">
+      <c r="A28" s="121">
         <v>22</v>
       </c>
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="136" t="s">
         <v>247</v>
       </c>
-      <c r="D28" s="133">
+      <c r="D28" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="126">
+      <c r="A29" s="121">
         <v>23</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="141" t="s">
+      <c r="C29" s="135" t="s">
         <v>257</v>
       </c>
-      <c r="D29" s="133">
+      <c r="D29" s="128">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="126">
+      <c r="A30" s="121">
         <v>24</v>
       </c>
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="142" t="s">
+      <c r="C30" s="136" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="133">
+      <c r="D30" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="126">
+      <c r="A31" s="121">
         <v>25</v>
       </c>
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="142" t="s">
+      <c r="C31" s="136" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="133">
+      <c r="D31" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="126">
+      <c r="A32" s="121">
         <v>26</v>
       </c>
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="142" t="s">
+      <c r="C32" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="133">
+      <c r="D32" s="128">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="126">
+      <c r="A33" s="121">
         <v>27</v>
       </c>
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="142" t="s">
+      <c r="C33" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="D33" s="133">
+      <c r="D33" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="126">
+      <c r="A34" s="121">
         <v>28</v>
       </c>
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="141" t="s">
+      <c r="C34" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="D34" s="133">
+      <c r="D34" s="128">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="126">
+      <c r="A35" s="121">
         <v>29</v>
       </c>
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="142" t="s">
+      <c r="C35" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="D35" s="133">
+      <c r="D35" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="126">
+      <c r="A36" s="121">
         <v>30</v>
       </c>
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="136" t="s">
         <v>233</v>
       </c>
-      <c r="D36" s="133">
+      <c r="D36" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="126">
+      <c r="A37" s="121">
         <v>31</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="142" t="s">
+      <c r="C37" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="D37" s="133">
+      <c r="D37" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="126">
+      <c r="A38" s="121">
         <v>32</v>
       </c>
-      <c r="B38" s="123" t="s">
+      <c r="B38" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="142" t="s">
+      <c r="C38" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="D38" s="133">
+      <c r="D38" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="126">
+      <c r="A39" s="121">
         <v>33</v>
       </c>
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="135" t="s">
         <v>259</v>
       </c>
-      <c r="D39" s="133">
+      <c r="D39" s="128">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="126">
+      <c r="A40" s="121">
         <v>34</v>
       </c>
-      <c r="B40" s="123" t="s">
+      <c r="B40" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="142" t="s">
+      <c r="C40" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="D40" s="133">
+      <c r="D40" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="126">
+      <c r="A41" s="121">
         <v>35</v>
       </c>
-      <c r="B41" s="123" t="s">
+      <c r="B41" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="142" t="s">
+      <c r="C41" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="D41" s="133">
+      <c r="D41" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="126">
+      <c r="A42" s="121">
         <v>36</v>
       </c>
-      <c r="B42" s="123" t="s">
+      <c r="B42" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="142" t="s">
+      <c r="C42" s="136" t="s">
         <v>262</v>
       </c>
-      <c r="D42" s="133">
+      <c r="D42" s="128">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="126">
+      <c r="A43" s="121">
         <v>37</v>
       </c>
-      <c r="B43" s="123" t="s">
+      <c r="B43" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="142" t="s">
+      <c r="C43" s="136" t="s">
         <v>263</v>
       </c>
-      <c r="D43" s="133">
+      <c r="D43" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="126">
+      <c r="A44" s="121">
         <v>38</v>
       </c>
-      <c r="B44" s="123" t="s">
+      <c r="B44" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="141" t="s">
+      <c r="C44" s="135" t="s">
         <v>264</v>
       </c>
-      <c r="D44" s="133">
+      <c r="D44" s="128">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="126">
+      <c r="A45" s="121">
         <v>39</v>
       </c>
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="142" t="s">
+      <c r="C45" s="136" t="s">
         <v>265</v>
       </c>
-      <c r="D45" s="133">
+      <c r="D45" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="126">
+      <c r="A46" s="121">
         <v>40</v>
       </c>
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="142" t="s">
+      <c r="C46" s="136" t="s">
         <v>266</v>
       </c>
-      <c r="D46" s="133">
+      <c r="D46" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="126">
+      <c r="A47" s="121">
         <v>41</v>
       </c>
-      <c r="B47" s="123" t="s">
+      <c r="B47" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="142" t="s">
+      <c r="C47" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="D47" s="133">
+      <c r="D47" s="128">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="126">
+      <c r="A48" s="121">
         <v>42</v>
       </c>
-      <c r="B48" s="123" t="s">
+      <c r="B48" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="142" t="s">
+      <c r="C48" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="D48" s="133">
+      <c r="D48" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="126">
+      <c r="A49" s="121">
         <v>43</v>
       </c>
-      <c r="B49" s="123" t="s">
+      <c r="B49" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="141" t="s">
+      <c r="C49" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="D49" s="133">
+      <c r="D49" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="126">
+      <c r="A50" s="121">
         <v>44</v>
       </c>
-      <c r="B50" s="123" t="s">
+      <c r="B50" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="142" t="s">
+      <c r="C50" s="136" t="s">
         <v>270</v>
       </c>
-      <c r="D50" s="133">
+      <c r="D50" s="128">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="126">
+      <c r="A51" s="121">
         <v>45</v>
       </c>
-      <c r="B51" s="123" t="s">
+      <c r="B51" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="142" t="s">
+      <c r="C51" s="136" t="s">
         <v>271</v>
       </c>
-      <c r="D51" s="133">
+      <c r="D51" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="126">
+      <c r="A52" s="121">
         <v>46</v>
       </c>
-      <c r="B52" s="123" t="s">
+      <c r="B52" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="142" t="s">
+      <c r="C52" s="136" t="s">
         <v>272</v>
       </c>
-      <c r="D52" s="133">
+      <c r="D52" s="128">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="126">
+      <c r="A53" s="121">
         <v>47</v>
       </c>
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="142" t="s">
+      <c r="C53" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="D53" s="133">
+      <c r="D53" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="126">
+      <c r="A54" s="121">
         <v>48</v>
       </c>
-      <c r="B54" s="123" t="s">
+      <c r="B54" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="125" t="s">
+      <c r="C54" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="D54" s="133">
+      <c r="D54" s="128">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="126">
+      <c r="A55" s="121">
         <v>49</v>
       </c>
-      <c r="B55" s="123" t="s">
+      <c r="B55" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="125" t="s">
+      <c r="C55" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="133">
+      <c r="D55" s="128">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="155" t="s">
+      <c r="A56" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="156"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="131">
+      <c r="B56" s="150"/>
+      <c r="C56" s="151"/>
+      <c r="D56" s="126">
         <f>SUM(D23:D55)</f>
         <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="126">
+      <c r="A57" s="121">
         <v>50</v>
       </c>
-      <c r="B57" s="123" t="s">
+      <c r="B57" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="140" t="s">
+      <c r="C57" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="D57" s="133">
+      <c r="D57" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="126">
+      <c r="A58" s="121">
         <v>51</v>
       </c>
-      <c r="B58" s="123" t="s">
+      <c r="B58" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="125" t="s">
+      <c r="C58" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="D58" s="133">
+      <c r="D58" s="128">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="126">
+      <c r="A59" s="121">
         <v>52</v>
       </c>
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="125" t="s">
+      <c r="C59" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="D59" s="133">
+      <c r="D59" s="128">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="126">
+      <c r="A60" s="121">
         <v>53</v>
       </c>
-      <c r="B60" s="123" t="s">
+      <c r="B60" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="125" t="s">
+      <c r="C60" s="120" t="s">
         <v>215</v>
       </c>
-      <c r="D60" s="133">
+      <c r="D60" s="128">
         <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="126">
+      <c r="A61" s="121">
         <v>54</v>
       </c>
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="140" t="s">
+      <c r="C61" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="D61" s="133">
+      <c r="D61" s="128">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="126">
+      <c r="A62" s="121">
         <v>55</v>
       </c>
-      <c r="B62" s="123" t="s">
+      <c r="B62" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="140" t="s">
+      <c r="C62" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="D62" s="133">
+      <c r="D62" s="128">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="126">
+      <c r="A63" s="121">
         <v>56</v>
       </c>
-      <c r="B63" s="123" t="s">
+      <c r="B63" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="140" t="s">
+      <c r="C63" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="D63" s="133">
+      <c r="D63" s="128">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="126">
+      <c r="A64" s="121">
         <v>57</v>
       </c>
-      <c r="B64" s="123" t="s">
+      <c r="B64" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="140" t="s">
+      <c r="C64" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="D64" s="133">
+      <c r="D64" s="128">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="126">
+      <c r="A65" s="121">
         <v>58</v>
       </c>
-      <c r="B65" s="137" t="s">
+      <c r="B65" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="125" t="s">
+      <c r="C65" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="D65" s="133">
+      <c r="D65" s="128">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12" x14ac:dyDescent="0.2">
-      <c r="A66" s="155"/>
-      <c r="B66" s="156"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="131">
+      <c r="A66" s="149"/>
+      <c r="B66" s="150"/>
+      <c r="C66" s="151"/>
+      <c r="D66" s="126">
         <f>SUM(D57:D65)</f>
         <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D67" s="143">
+      <c r="D67" s="137">
         <f>SUM(D11,D22,D56,D66)</f>
         <v>219</v>
       </c>
@@ -8247,7 +8266,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -8258,345 +8277,403 @@
     <col min="4" max="5" width="14.140625" style="22" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="14" style="22" customWidth="1"/>
-    <col min="10" max="10" width="14" style="51" customWidth="1"/>
+    <col min="10" max="10" width="14" style="48" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="161" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="82" t="e">
+      <c r="B2" s="166"/>
+      <c r="C2" s="77" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" s="169" t="s">
+      <c r="D2" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="169"/>
-      <c r="F2" s="83" t="e">
+      <c r="E2" s="163"/>
+      <c r="F2" s="78" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G2" s="170" t="s">
+      <c r="G2" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="82">
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="77">
         <f>Planejamento!$B$10</f>
         <v>262.8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="173" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="174" t="s">
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="84" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="91">
+      <c r="A5" s="86">
         <v>1</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="88">
         <v>45559</v>
       </c>
-      <c r="D5" s="93">
+      <c r="D5" s="88">
         <v>45560</v>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="89">
         <v>24</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="88">
+        <v>45559</v>
+      </c>
+      <c r="H5" s="88">
+        <v>45560</v>
+      </c>
+      <c r="I5" s="89">
+        <v>24</v>
+      </c>
+      <c r="J5" s="91">
+        <v>0</v>
+      </c>
+      <c r="K5" s="92"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="86">
+        <v>2</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="88">
+        <v>45560</v>
+      </c>
+      <c r="D6" s="88">
+        <v>45567</v>
+      </c>
+      <c r="E6" s="89">
+        <v>24</v>
+      </c>
+      <c r="F6" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" s="88">
+        <v>45560</v>
+      </c>
+      <c r="H6" s="88">
+        <v>45567</v>
+      </c>
+      <c r="I6" s="93">
+        <v>24</v>
+      </c>
+      <c r="J6" s="94">
+        <v>0</v>
+      </c>
+      <c r="K6" s="92"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="86">
+        <v>3</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="88">
+        <v>45567</v>
+      </c>
+      <c r="D7" s="88">
+        <v>45574</v>
+      </c>
+      <c r="E7" s="89">
+        <v>24</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="88">
+        <v>45567</v>
+      </c>
+      <c r="H7" s="88">
+        <v>45574</v>
+      </c>
+      <c r="I7" s="93">
+        <v>24</v>
+      </c>
+      <c r="J7" s="94">
+        <v>0</v>
+      </c>
+      <c r="K7" s="92"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="86">
+        <v>4</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="88">
+        <v>45574</v>
+      </c>
+      <c r="D8" s="88">
+        <v>45581</v>
+      </c>
+      <c r="E8" s="89">
+        <v>24</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="G8" s="88">
+        <v>45574</v>
+      </c>
+      <c r="H8" s="88">
+        <v>45581</v>
+      </c>
+      <c r="I8" s="93">
+        <v>24</v>
+      </c>
+      <c r="J8" s="94">
+        <v>0</v>
+      </c>
+      <c r="K8" s="92"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="86">
+        <v>5</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="88">
+        <v>45581</v>
+      </c>
+      <c r="D9" s="88">
+        <v>45588</v>
+      </c>
+      <c r="E9" s="89">
+        <v>24</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="G9" s="88">
+        <v>45581</v>
+      </c>
+      <c r="H9" s="88">
+        <v>45588</v>
+      </c>
+      <c r="I9" s="93">
+        <v>24</v>
+      </c>
+      <c r="J9" s="94">
+        <v>0</v>
+      </c>
+      <c r="K9" s="92"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="86">
+        <v>6</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="88">
+        <v>45588</v>
+      </c>
+      <c r="D10" s="88">
+        <v>45595</v>
+      </c>
+      <c r="E10" s="89">
+        <v>24</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" s="88">
+        <v>45588</v>
+      </c>
+      <c r="H10" s="88">
+        <v>45595</v>
+      </c>
+      <c r="I10" s="93">
+        <v>24</v>
+      </c>
+      <c r="J10" s="94">
+        <v>0</v>
+      </c>
+      <c r="K10" s="92"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="86">
+        <v>7</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="88">
+        <v>45602</v>
+      </c>
+      <c r="D11" s="88">
+        <v>45609</v>
+      </c>
+      <c r="E11" s="89">
+        <v>24</v>
+      </c>
+      <c r="F11" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="G5" s="93">
-        <v>45559</v>
-      </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="91">
-        <v>2</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="93">
-        <v>45560</v>
-      </c>
-      <c r="D6" s="93">
-        <v>45567</v>
-      </c>
-      <c r="E6" s="94">
-        <v>24</v>
-      </c>
-      <c r="F6" s="95" t="s">
+      <c r="G11" s="88">
+        <v>45602</v>
+      </c>
+      <c r="H11" s="88"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="92"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="86">
+        <v>8</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="88">
+        <v>45610</v>
+      </c>
+      <c r="D12" s="88">
+        <v>45616</v>
+      </c>
+      <c r="E12" s="93">
+        <v>30</v>
+      </c>
+      <c r="F12" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="97"/>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="91">
-        <v>3</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="93">
-        <v>45567</v>
-      </c>
-      <c r="D7" s="93">
-        <v>45574</v>
-      </c>
-      <c r="E7" s="94">
-        <v>24</v>
-      </c>
-      <c r="F7" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="97"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="91">
-        <v>4</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="93">
-        <v>45574</v>
-      </c>
-      <c r="D8" s="93">
-        <v>45581</v>
-      </c>
-      <c r="E8" s="94">
-        <v>24</v>
-      </c>
-      <c r="F8" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="97"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="91">
-        <v>5</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="93">
-        <v>45581</v>
-      </c>
-      <c r="D9" s="93">
-        <v>45588</v>
-      </c>
-      <c r="E9" s="94">
-        <v>24</v>
-      </c>
-      <c r="F9" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="97"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="91">
-        <v>6</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="93">
-        <v>45588</v>
-      </c>
-      <c r="D10" s="93">
-        <v>45595</v>
-      </c>
-      <c r="E10" s="94">
-        <v>24</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="97"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="91">
-        <v>7</v>
-      </c>
-      <c r="B11" s="92" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="93">
-        <v>45602</v>
-      </c>
-      <c r="D11" s="93">
-        <v>45609</v>
-      </c>
-      <c r="E11" s="94">
-        <v>24</v>
-      </c>
-      <c r="F11" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="97"/>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="91">
-        <v>8</v>
-      </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="97"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="92"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="91">
+      <c r="A13" s="86">
         <v>9</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="97"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="92"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="91">
+      <c r="A14" s="86">
         <v>10</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="97"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="49">
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="46">
         <f>SUM(E5:E14)</f>
-        <v>168</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49">
+        <v>198</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="46">
         <f>SUM(I5:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="50">
+        <v>144</v>
+      </c>
+      <c r="J15" s="47">
         <f>SUM(J5:J14)</f>
         <v>0</v>
       </c>
@@ -8615,38 +8692,54 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
+  <conditionalFormatting sqref="A5:D14">
+    <cfRule type="expression" dxfId="17" priority="28" stopIfTrue="1">
+      <formula>OR($F5="Planned",$F5="Unplanned")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="29" stopIfTrue="1">
+      <formula>$F5="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F5:F14">
-    <cfRule type="expression" dxfId="13" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
       <formula>$F5="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:D14">
-    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="G5 G12:H14 H11">
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
       <formula>OR($F5="Planned",$F5="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:H14 H5">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>OR($F6="Planned",$F6="Unplanned")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>$F6="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G11">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>OR($F7="Planned",$F7="Unplanned")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>$F7="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H10">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>OR($F5="Planned",$F5="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
-      <formula>$F5="Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
-      <formula>OR($F5="Planned",$F5="Unplanned")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$F5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8663,1502 +8756,1410 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="58" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="26" style="58" customWidth="1"/>
-    <col min="11" max="11" width="30" style="58" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="58"/>
-    <col min="13" max="14" width="22" style="58" customWidth="1"/>
-    <col min="15" max="256" width="9.140625" style="58"/>
-    <col min="257" max="258" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="13.140625" style="58" customWidth="1"/>
-    <col min="264" max="264" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="26" style="58" customWidth="1"/>
-    <col min="266" max="266" width="34.85546875" style="58" customWidth="1"/>
-    <col min="267" max="267" width="19" style="58" customWidth="1"/>
-    <col min="268" max="268" width="9.140625" style="58"/>
-    <col min="269" max="270" width="22" style="58" customWidth="1"/>
-    <col min="271" max="512" width="9.140625" style="58"/>
-    <col min="513" max="514" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="13.140625" style="58" customWidth="1"/>
-    <col min="520" max="520" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="26" style="58" customWidth="1"/>
-    <col min="522" max="522" width="34.85546875" style="58" customWidth="1"/>
-    <col min="523" max="523" width="19" style="58" customWidth="1"/>
-    <col min="524" max="524" width="9.140625" style="58"/>
-    <col min="525" max="526" width="22" style="58" customWidth="1"/>
-    <col min="527" max="768" width="9.140625" style="58"/>
-    <col min="769" max="770" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="13.140625" style="58" customWidth="1"/>
-    <col min="776" max="776" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="26" style="58" customWidth="1"/>
-    <col min="778" max="778" width="34.85546875" style="58" customWidth="1"/>
-    <col min="779" max="779" width="19" style="58" customWidth="1"/>
-    <col min="780" max="780" width="9.140625" style="58"/>
-    <col min="781" max="782" width="22" style="58" customWidth="1"/>
-    <col min="783" max="1024" width="9.140625" style="58"/>
-    <col min="1025" max="1026" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="13.140625" style="58" customWidth="1"/>
-    <col min="1032" max="1032" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="26" style="58" customWidth="1"/>
-    <col min="1034" max="1034" width="34.85546875" style="58" customWidth="1"/>
-    <col min="1035" max="1035" width="19" style="58" customWidth="1"/>
-    <col min="1036" max="1036" width="9.140625" style="58"/>
-    <col min="1037" max="1038" width="22" style="58" customWidth="1"/>
-    <col min="1039" max="1280" width="9.140625" style="58"/>
-    <col min="1281" max="1282" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="13.140625" style="58" customWidth="1"/>
-    <col min="1288" max="1288" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="26" style="58" customWidth="1"/>
-    <col min="1290" max="1290" width="34.85546875" style="58" customWidth="1"/>
-    <col min="1291" max="1291" width="19" style="58" customWidth="1"/>
-    <col min="1292" max="1292" width="9.140625" style="58"/>
-    <col min="1293" max="1294" width="22" style="58" customWidth="1"/>
-    <col min="1295" max="1536" width="9.140625" style="58"/>
-    <col min="1537" max="1538" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="13.140625" style="58" customWidth="1"/>
-    <col min="1544" max="1544" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="26" style="58" customWidth="1"/>
-    <col min="1546" max="1546" width="34.85546875" style="58" customWidth="1"/>
-    <col min="1547" max="1547" width="19" style="58" customWidth="1"/>
-    <col min="1548" max="1548" width="9.140625" style="58"/>
-    <col min="1549" max="1550" width="22" style="58" customWidth="1"/>
-    <col min="1551" max="1792" width="9.140625" style="58"/>
-    <col min="1793" max="1794" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="13.140625" style="58" customWidth="1"/>
-    <col min="1800" max="1800" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="26" style="58" customWidth="1"/>
-    <col min="1802" max="1802" width="34.85546875" style="58" customWidth="1"/>
-    <col min="1803" max="1803" width="19" style="58" customWidth="1"/>
-    <col min="1804" max="1804" width="9.140625" style="58"/>
-    <col min="1805" max="1806" width="22" style="58" customWidth="1"/>
-    <col min="1807" max="2048" width="9.140625" style="58"/>
-    <col min="2049" max="2050" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="13.140625" style="58" customWidth="1"/>
-    <col min="2056" max="2056" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="26" style="58" customWidth="1"/>
-    <col min="2058" max="2058" width="34.85546875" style="58" customWidth="1"/>
-    <col min="2059" max="2059" width="19" style="58" customWidth="1"/>
-    <col min="2060" max="2060" width="9.140625" style="58"/>
-    <col min="2061" max="2062" width="22" style="58" customWidth="1"/>
-    <col min="2063" max="2304" width="9.140625" style="58"/>
-    <col min="2305" max="2306" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="13.140625" style="58" customWidth="1"/>
-    <col min="2312" max="2312" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="26" style="58" customWidth="1"/>
-    <col min="2314" max="2314" width="34.85546875" style="58" customWidth="1"/>
-    <col min="2315" max="2315" width="19" style="58" customWidth="1"/>
-    <col min="2316" max="2316" width="9.140625" style="58"/>
-    <col min="2317" max="2318" width="22" style="58" customWidth="1"/>
-    <col min="2319" max="2560" width="9.140625" style="58"/>
-    <col min="2561" max="2562" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="13.140625" style="58" customWidth="1"/>
-    <col min="2568" max="2568" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="26" style="58" customWidth="1"/>
-    <col min="2570" max="2570" width="34.85546875" style="58" customWidth="1"/>
-    <col min="2571" max="2571" width="19" style="58" customWidth="1"/>
-    <col min="2572" max="2572" width="9.140625" style="58"/>
-    <col min="2573" max="2574" width="22" style="58" customWidth="1"/>
-    <col min="2575" max="2816" width="9.140625" style="58"/>
-    <col min="2817" max="2818" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="13.140625" style="58" customWidth="1"/>
-    <col min="2824" max="2824" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="26" style="58" customWidth="1"/>
-    <col min="2826" max="2826" width="34.85546875" style="58" customWidth="1"/>
-    <col min="2827" max="2827" width="19" style="58" customWidth="1"/>
-    <col min="2828" max="2828" width="9.140625" style="58"/>
-    <col min="2829" max="2830" width="22" style="58" customWidth="1"/>
-    <col min="2831" max="3072" width="9.140625" style="58"/>
-    <col min="3073" max="3074" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="13.140625" style="58" customWidth="1"/>
-    <col min="3080" max="3080" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="26" style="58" customWidth="1"/>
-    <col min="3082" max="3082" width="34.85546875" style="58" customWidth="1"/>
-    <col min="3083" max="3083" width="19" style="58" customWidth="1"/>
-    <col min="3084" max="3084" width="9.140625" style="58"/>
-    <col min="3085" max="3086" width="22" style="58" customWidth="1"/>
-    <col min="3087" max="3328" width="9.140625" style="58"/>
-    <col min="3329" max="3330" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="13.140625" style="58" customWidth="1"/>
-    <col min="3336" max="3336" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="26" style="58" customWidth="1"/>
-    <col min="3338" max="3338" width="34.85546875" style="58" customWidth="1"/>
-    <col min="3339" max="3339" width="19" style="58" customWidth="1"/>
-    <col min="3340" max="3340" width="9.140625" style="58"/>
-    <col min="3341" max="3342" width="22" style="58" customWidth="1"/>
-    <col min="3343" max="3584" width="9.140625" style="58"/>
-    <col min="3585" max="3586" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="13.140625" style="58" customWidth="1"/>
-    <col min="3592" max="3592" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="26" style="58" customWidth="1"/>
-    <col min="3594" max="3594" width="34.85546875" style="58" customWidth="1"/>
-    <col min="3595" max="3595" width="19" style="58" customWidth="1"/>
-    <col min="3596" max="3596" width="9.140625" style="58"/>
-    <col min="3597" max="3598" width="22" style="58" customWidth="1"/>
-    <col min="3599" max="3840" width="9.140625" style="58"/>
-    <col min="3841" max="3842" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="13.140625" style="58" customWidth="1"/>
-    <col min="3848" max="3848" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="26" style="58" customWidth="1"/>
-    <col min="3850" max="3850" width="34.85546875" style="58" customWidth="1"/>
-    <col min="3851" max="3851" width="19" style="58" customWidth="1"/>
-    <col min="3852" max="3852" width="9.140625" style="58"/>
-    <col min="3853" max="3854" width="22" style="58" customWidth="1"/>
-    <col min="3855" max="4096" width="9.140625" style="58"/>
-    <col min="4097" max="4098" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="13.140625" style="58" customWidth="1"/>
-    <col min="4104" max="4104" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="26" style="58" customWidth="1"/>
-    <col min="4106" max="4106" width="34.85546875" style="58" customWidth="1"/>
-    <col min="4107" max="4107" width="19" style="58" customWidth="1"/>
-    <col min="4108" max="4108" width="9.140625" style="58"/>
-    <col min="4109" max="4110" width="22" style="58" customWidth="1"/>
-    <col min="4111" max="4352" width="9.140625" style="58"/>
-    <col min="4353" max="4354" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="13.140625" style="58" customWidth="1"/>
-    <col min="4360" max="4360" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="26" style="58" customWidth="1"/>
-    <col min="4362" max="4362" width="34.85546875" style="58" customWidth="1"/>
-    <col min="4363" max="4363" width="19" style="58" customWidth="1"/>
-    <col min="4364" max="4364" width="9.140625" style="58"/>
-    <col min="4365" max="4366" width="22" style="58" customWidth="1"/>
-    <col min="4367" max="4608" width="9.140625" style="58"/>
-    <col min="4609" max="4610" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="13.140625" style="58" customWidth="1"/>
-    <col min="4616" max="4616" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="26" style="58" customWidth="1"/>
-    <col min="4618" max="4618" width="34.85546875" style="58" customWidth="1"/>
-    <col min="4619" max="4619" width="19" style="58" customWidth="1"/>
-    <col min="4620" max="4620" width="9.140625" style="58"/>
-    <col min="4621" max="4622" width="22" style="58" customWidth="1"/>
-    <col min="4623" max="4864" width="9.140625" style="58"/>
-    <col min="4865" max="4866" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="13.140625" style="58" customWidth="1"/>
-    <col min="4872" max="4872" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="26" style="58" customWidth="1"/>
-    <col min="4874" max="4874" width="34.85546875" style="58" customWidth="1"/>
-    <col min="4875" max="4875" width="19" style="58" customWidth="1"/>
-    <col min="4876" max="4876" width="9.140625" style="58"/>
-    <col min="4877" max="4878" width="22" style="58" customWidth="1"/>
-    <col min="4879" max="5120" width="9.140625" style="58"/>
-    <col min="5121" max="5122" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="13.140625" style="58" customWidth="1"/>
-    <col min="5128" max="5128" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="26" style="58" customWidth="1"/>
-    <col min="5130" max="5130" width="34.85546875" style="58" customWidth="1"/>
-    <col min="5131" max="5131" width="19" style="58" customWidth="1"/>
-    <col min="5132" max="5132" width="9.140625" style="58"/>
-    <col min="5133" max="5134" width="22" style="58" customWidth="1"/>
-    <col min="5135" max="5376" width="9.140625" style="58"/>
-    <col min="5377" max="5378" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="13.140625" style="58" customWidth="1"/>
-    <col min="5384" max="5384" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="26" style="58" customWidth="1"/>
-    <col min="5386" max="5386" width="34.85546875" style="58" customWidth="1"/>
-    <col min="5387" max="5387" width="19" style="58" customWidth="1"/>
-    <col min="5388" max="5388" width="9.140625" style="58"/>
-    <col min="5389" max="5390" width="22" style="58" customWidth="1"/>
-    <col min="5391" max="5632" width="9.140625" style="58"/>
-    <col min="5633" max="5634" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="13.140625" style="58" customWidth="1"/>
-    <col min="5640" max="5640" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="26" style="58" customWidth="1"/>
-    <col min="5642" max="5642" width="34.85546875" style="58" customWidth="1"/>
-    <col min="5643" max="5643" width="19" style="58" customWidth="1"/>
-    <col min="5644" max="5644" width="9.140625" style="58"/>
-    <col min="5645" max="5646" width="22" style="58" customWidth="1"/>
-    <col min="5647" max="5888" width="9.140625" style="58"/>
-    <col min="5889" max="5890" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="13.140625" style="58" customWidth="1"/>
-    <col min="5896" max="5896" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="26" style="58" customWidth="1"/>
-    <col min="5898" max="5898" width="34.85546875" style="58" customWidth="1"/>
-    <col min="5899" max="5899" width="19" style="58" customWidth="1"/>
-    <col min="5900" max="5900" width="9.140625" style="58"/>
-    <col min="5901" max="5902" width="22" style="58" customWidth="1"/>
-    <col min="5903" max="6144" width="9.140625" style="58"/>
-    <col min="6145" max="6146" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="13.140625" style="58" customWidth="1"/>
-    <col min="6152" max="6152" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="26" style="58" customWidth="1"/>
-    <col min="6154" max="6154" width="34.85546875" style="58" customWidth="1"/>
-    <col min="6155" max="6155" width="19" style="58" customWidth="1"/>
-    <col min="6156" max="6156" width="9.140625" style="58"/>
-    <col min="6157" max="6158" width="22" style="58" customWidth="1"/>
-    <col min="6159" max="6400" width="9.140625" style="58"/>
-    <col min="6401" max="6402" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="13.140625" style="58" customWidth="1"/>
-    <col min="6408" max="6408" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="26" style="58" customWidth="1"/>
-    <col min="6410" max="6410" width="34.85546875" style="58" customWidth="1"/>
-    <col min="6411" max="6411" width="19" style="58" customWidth="1"/>
-    <col min="6412" max="6412" width="9.140625" style="58"/>
-    <col min="6413" max="6414" width="22" style="58" customWidth="1"/>
-    <col min="6415" max="6656" width="9.140625" style="58"/>
-    <col min="6657" max="6658" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="13.140625" style="58" customWidth="1"/>
-    <col min="6664" max="6664" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="26" style="58" customWidth="1"/>
-    <col min="6666" max="6666" width="34.85546875" style="58" customWidth="1"/>
-    <col min="6667" max="6667" width="19" style="58" customWidth="1"/>
-    <col min="6668" max="6668" width="9.140625" style="58"/>
-    <col min="6669" max="6670" width="22" style="58" customWidth="1"/>
-    <col min="6671" max="6912" width="9.140625" style="58"/>
-    <col min="6913" max="6914" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="13.140625" style="58" customWidth="1"/>
-    <col min="6920" max="6920" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="26" style="58" customWidth="1"/>
-    <col min="6922" max="6922" width="34.85546875" style="58" customWidth="1"/>
-    <col min="6923" max="6923" width="19" style="58" customWidth="1"/>
-    <col min="6924" max="6924" width="9.140625" style="58"/>
-    <col min="6925" max="6926" width="22" style="58" customWidth="1"/>
-    <col min="6927" max="7168" width="9.140625" style="58"/>
-    <col min="7169" max="7170" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="13.140625" style="58" customWidth="1"/>
-    <col min="7176" max="7176" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="26" style="58" customWidth="1"/>
-    <col min="7178" max="7178" width="34.85546875" style="58" customWidth="1"/>
-    <col min="7179" max="7179" width="19" style="58" customWidth="1"/>
-    <col min="7180" max="7180" width="9.140625" style="58"/>
-    <col min="7181" max="7182" width="22" style="58" customWidth="1"/>
-    <col min="7183" max="7424" width="9.140625" style="58"/>
-    <col min="7425" max="7426" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="13.140625" style="58" customWidth="1"/>
-    <col min="7432" max="7432" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="26" style="58" customWidth="1"/>
-    <col min="7434" max="7434" width="34.85546875" style="58" customWidth="1"/>
-    <col min="7435" max="7435" width="19" style="58" customWidth="1"/>
-    <col min="7436" max="7436" width="9.140625" style="58"/>
-    <col min="7437" max="7438" width="22" style="58" customWidth="1"/>
-    <col min="7439" max="7680" width="9.140625" style="58"/>
-    <col min="7681" max="7682" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="13.140625" style="58" customWidth="1"/>
-    <col min="7688" max="7688" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="26" style="58" customWidth="1"/>
-    <col min="7690" max="7690" width="34.85546875" style="58" customWidth="1"/>
-    <col min="7691" max="7691" width="19" style="58" customWidth="1"/>
-    <col min="7692" max="7692" width="9.140625" style="58"/>
-    <col min="7693" max="7694" width="22" style="58" customWidth="1"/>
-    <col min="7695" max="7936" width="9.140625" style="58"/>
-    <col min="7937" max="7938" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="13.140625" style="58" customWidth="1"/>
-    <col min="7944" max="7944" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="26" style="58" customWidth="1"/>
-    <col min="7946" max="7946" width="34.85546875" style="58" customWidth="1"/>
-    <col min="7947" max="7947" width="19" style="58" customWidth="1"/>
-    <col min="7948" max="7948" width="9.140625" style="58"/>
-    <col min="7949" max="7950" width="22" style="58" customWidth="1"/>
-    <col min="7951" max="8192" width="9.140625" style="58"/>
-    <col min="8193" max="8194" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="13.140625" style="58" customWidth="1"/>
-    <col min="8200" max="8200" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="26" style="58" customWidth="1"/>
-    <col min="8202" max="8202" width="34.85546875" style="58" customWidth="1"/>
-    <col min="8203" max="8203" width="19" style="58" customWidth="1"/>
-    <col min="8204" max="8204" width="9.140625" style="58"/>
-    <col min="8205" max="8206" width="22" style="58" customWidth="1"/>
-    <col min="8207" max="8448" width="9.140625" style="58"/>
-    <col min="8449" max="8450" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="13.140625" style="58" customWidth="1"/>
-    <col min="8456" max="8456" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="26" style="58" customWidth="1"/>
-    <col min="8458" max="8458" width="34.85546875" style="58" customWidth="1"/>
-    <col min="8459" max="8459" width="19" style="58" customWidth="1"/>
-    <col min="8460" max="8460" width="9.140625" style="58"/>
-    <col min="8461" max="8462" width="22" style="58" customWidth="1"/>
-    <col min="8463" max="8704" width="9.140625" style="58"/>
-    <col min="8705" max="8706" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="13.140625" style="58" customWidth="1"/>
-    <col min="8712" max="8712" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="26" style="58" customWidth="1"/>
-    <col min="8714" max="8714" width="34.85546875" style="58" customWidth="1"/>
-    <col min="8715" max="8715" width="19" style="58" customWidth="1"/>
-    <col min="8716" max="8716" width="9.140625" style="58"/>
-    <col min="8717" max="8718" width="22" style="58" customWidth="1"/>
-    <col min="8719" max="8960" width="9.140625" style="58"/>
-    <col min="8961" max="8962" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="13.140625" style="58" customWidth="1"/>
-    <col min="8968" max="8968" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="26" style="58" customWidth="1"/>
-    <col min="8970" max="8970" width="34.85546875" style="58" customWidth="1"/>
-    <col min="8971" max="8971" width="19" style="58" customWidth="1"/>
-    <col min="8972" max="8972" width="9.140625" style="58"/>
-    <col min="8973" max="8974" width="22" style="58" customWidth="1"/>
-    <col min="8975" max="9216" width="9.140625" style="58"/>
-    <col min="9217" max="9218" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="13.140625" style="58" customWidth="1"/>
-    <col min="9224" max="9224" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="26" style="58" customWidth="1"/>
-    <col min="9226" max="9226" width="34.85546875" style="58" customWidth="1"/>
-    <col min="9227" max="9227" width="19" style="58" customWidth="1"/>
-    <col min="9228" max="9228" width="9.140625" style="58"/>
-    <col min="9229" max="9230" width="22" style="58" customWidth="1"/>
-    <col min="9231" max="9472" width="9.140625" style="58"/>
-    <col min="9473" max="9474" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="13.140625" style="58" customWidth="1"/>
-    <col min="9480" max="9480" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="26" style="58" customWidth="1"/>
-    <col min="9482" max="9482" width="34.85546875" style="58" customWidth="1"/>
-    <col min="9483" max="9483" width="19" style="58" customWidth="1"/>
-    <col min="9484" max="9484" width="9.140625" style="58"/>
-    <col min="9485" max="9486" width="22" style="58" customWidth="1"/>
-    <col min="9487" max="9728" width="9.140625" style="58"/>
-    <col min="9729" max="9730" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="13.140625" style="58" customWidth="1"/>
-    <col min="9736" max="9736" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="26" style="58" customWidth="1"/>
-    <col min="9738" max="9738" width="34.85546875" style="58" customWidth="1"/>
-    <col min="9739" max="9739" width="19" style="58" customWidth="1"/>
-    <col min="9740" max="9740" width="9.140625" style="58"/>
-    <col min="9741" max="9742" width="22" style="58" customWidth="1"/>
-    <col min="9743" max="9984" width="9.140625" style="58"/>
-    <col min="9985" max="9986" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="13.140625" style="58" customWidth="1"/>
-    <col min="9992" max="9992" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="26" style="58" customWidth="1"/>
-    <col min="9994" max="9994" width="34.85546875" style="58" customWidth="1"/>
-    <col min="9995" max="9995" width="19" style="58" customWidth="1"/>
-    <col min="9996" max="9996" width="9.140625" style="58"/>
-    <col min="9997" max="9998" width="22" style="58" customWidth="1"/>
-    <col min="9999" max="10240" width="9.140625" style="58"/>
-    <col min="10241" max="10242" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="13.140625" style="58" customWidth="1"/>
-    <col min="10248" max="10248" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="26" style="58" customWidth="1"/>
-    <col min="10250" max="10250" width="34.85546875" style="58" customWidth="1"/>
-    <col min="10251" max="10251" width="19" style="58" customWidth="1"/>
-    <col min="10252" max="10252" width="9.140625" style="58"/>
-    <col min="10253" max="10254" width="22" style="58" customWidth="1"/>
-    <col min="10255" max="10496" width="9.140625" style="58"/>
-    <col min="10497" max="10498" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="13.140625" style="58" customWidth="1"/>
-    <col min="10504" max="10504" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="26" style="58" customWidth="1"/>
-    <col min="10506" max="10506" width="34.85546875" style="58" customWidth="1"/>
-    <col min="10507" max="10507" width="19" style="58" customWidth="1"/>
-    <col min="10508" max="10508" width="9.140625" style="58"/>
-    <col min="10509" max="10510" width="22" style="58" customWidth="1"/>
-    <col min="10511" max="10752" width="9.140625" style="58"/>
-    <col min="10753" max="10754" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="13.140625" style="58" customWidth="1"/>
-    <col min="10760" max="10760" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="26" style="58" customWidth="1"/>
-    <col min="10762" max="10762" width="34.85546875" style="58" customWidth="1"/>
-    <col min="10763" max="10763" width="19" style="58" customWidth="1"/>
-    <col min="10764" max="10764" width="9.140625" style="58"/>
-    <col min="10765" max="10766" width="22" style="58" customWidth="1"/>
-    <col min="10767" max="11008" width="9.140625" style="58"/>
-    <col min="11009" max="11010" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="13.140625" style="58" customWidth="1"/>
-    <col min="11016" max="11016" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="26" style="58" customWidth="1"/>
-    <col min="11018" max="11018" width="34.85546875" style="58" customWidth="1"/>
-    <col min="11019" max="11019" width="19" style="58" customWidth="1"/>
-    <col min="11020" max="11020" width="9.140625" style="58"/>
-    <col min="11021" max="11022" width="22" style="58" customWidth="1"/>
-    <col min="11023" max="11264" width="9.140625" style="58"/>
-    <col min="11265" max="11266" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="13.140625" style="58" customWidth="1"/>
-    <col min="11272" max="11272" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="26" style="58" customWidth="1"/>
-    <col min="11274" max="11274" width="34.85546875" style="58" customWidth="1"/>
-    <col min="11275" max="11275" width="19" style="58" customWidth="1"/>
-    <col min="11276" max="11276" width="9.140625" style="58"/>
-    <col min="11277" max="11278" width="22" style="58" customWidth="1"/>
-    <col min="11279" max="11520" width="9.140625" style="58"/>
-    <col min="11521" max="11522" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="13.140625" style="58" customWidth="1"/>
-    <col min="11528" max="11528" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="26" style="58" customWidth="1"/>
-    <col min="11530" max="11530" width="34.85546875" style="58" customWidth="1"/>
-    <col min="11531" max="11531" width="19" style="58" customWidth="1"/>
-    <col min="11532" max="11532" width="9.140625" style="58"/>
-    <col min="11533" max="11534" width="22" style="58" customWidth="1"/>
-    <col min="11535" max="11776" width="9.140625" style="58"/>
-    <col min="11777" max="11778" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="13.140625" style="58" customWidth="1"/>
-    <col min="11784" max="11784" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="26" style="58" customWidth="1"/>
-    <col min="11786" max="11786" width="34.85546875" style="58" customWidth="1"/>
-    <col min="11787" max="11787" width="19" style="58" customWidth="1"/>
-    <col min="11788" max="11788" width="9.140625" style="58"/>
-    <col min="11789" max="11790" width="22" style="58" customWidth="1"/>
-    <col min="11791" max="12032" width="9.140625" style="58"/>
-    <col min="12033" max="12034" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="13.140625" style="58" customWidth="1"/>
-    <col min="12040" max="12040" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="26" style="58" customWidth="1"/>
-    <col min="12042" max="12042" width="34.85546875" style="58" customWidth="1"/>
-    <col min="12043" max="12043" width="19" style="58" customWidth="1"/>
-    <col min="12044" max="12044" width="9.140625" style="58"/>
-    <col min="12045" max="12046" width="22" style="58" customWidth="1"/>
-    <col min="12047" max="12288" width="9.140625" style="58"/>
-    <col min="12289" max="12290" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="13.140625" style="58" customWidth="1"/>
-    <col min="12296" max="12296" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="26" style="58" customWidth="1"/>
-    <col min="12298" max="12298" width="34.85546875" style="58" customWidth="1"/>
-    <col min="12299" max="12299" width="19" style="58" customWidth="1"/>
-    <col min="12300" max="12300" width="9.140625" style="58"/>
-    <col min="12301" max="12302" width="22" style="58" customWidth="1"/>
-    <col min="12303" max="12544" width="9.140625" style="58"/>
-    <col min="12545" max="12546" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="13.140625" style="58" customWidth="1"/>
-    <col min="12552" max="12552" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="26" style="58" customWidth="1"/>
-    <col min="12554" max="12554" width="34.85546875" style="58" customWidth="1"/>
-    <col min="12555" max="12555" width="19" style="58" customWidth="1"/>
-    <col min="12556" max="12556" width="9.140625" style="58"/>
-    <col min="12557" max="12558" width="22" style="58" customWidth="1"/>
-    <col min="12559" max="12800" width="9.140625" style="58"/>
-    <col min="12801" max="12802" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="13.140625" style="58" customWidth="1"/>
-    <col min="12808" max="12808" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="26" style="58" customWidth="1"/>
-    <col min="12810" max="12810" width="34.85546875" style="58" customWidth="1"/>
-    <col min="12811" max="12811" width="19" style="58" customWidth="1"/>
-    <col min="12812" max="12812" width="9.140625" style="58"/>
-    <col min="12813" max="12814" width="22" style="58" customWidth="1"/>
-    <col min="12815" max="13056" width="9.140625" style="58"/>
-    <col min="13057" max="13058" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="13.140625" style="58" customWidth="1"/>
-    <col min="13064" max="13064" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="26" style="58" customWidth="1"/>
-    <col min="13066" max="13066" width="34.85546875" style="58" customWidth="1"/>
-    <col min="13067" max="13067" width="19" style="58" customWidth="1"/>
-    <col min="13068" max="13068" width="9.140625" style="58"/>
-    <col min="13069" max="13070" width="22" style="58" customWidth="1"/>
-    <col min="13071" max="13312" width="9.140625" style="58"/>
-    <col min="13313" max="13314" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="13.140625" style="58" customWidth="1"/>
-    <col min="13320" max="13320" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="26" style="58" customWidth="1"/>
-    <col min="13322" max="13322" width="34.85546875" style="58" customWidth="1"/>
-    <col min="13323" max="13323" width="19" style="58" customWidth="1"/>
-    <col min="13324" max="13324" width="9.140625" style="58"/>
-    <col min="13325" max="13326" width="22" style="58" customWidth="1"/>
-    <col min="13327" max="13568" width="9.140625" style="58"/>
-    <col min="13569" max="13570" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="13.140625" style="58" customWidth="1"/>
-    <col min="13576" max="13576" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="26" style="58" customWidth="1"/>
-    <col min="13578" max="13578" width="34.85546875" style="58" customWidth="1"/>
-    <col min="13579" max="13579" width="19" style="58" customWidth="1"/>
-    <col min="13580" max="13580" width="9.140625" style="58"/>
-    <col min="13581" max="13582" width="22" style="58" customWidth="1"/>
-    <col min="13583" max="13824" width="9.140625" style="58"/>
-    <col min="13825" max="13826" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="13.140625" style="58" customWidth="1"/>
-    <col min="13832" max="13832" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="26" style="58" customWidth="1"/>
-    <col min="13834" max="13834" width="34.85546875" style="58" customWidth="1"/>
-    <col min="13835" max="13835" width="19" style="58" customWidth="1"/>
-    <col min="13836" max="13836" width="9.140625" style="58"/>
-    <col min="13837" max="13838" width="22" style="58" customWidth="1"/>
-    <col min="13839" max="14080" width="9.140625" style="58"/>
-    <col min="14081" max="14082" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="13.140625" style="58" customWidth="1"/>
-    <col min="14088" max="14088" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="26" style="58" customWidth="1"/>
-    <col min="14090" max="14090" width="34.85546875" style="58" customWidth="1"/>
-    <col min="14091" max="14091" width="19" style="58" customWidth="1"/>
-    <col min="14092" max="14092" width="9.140625" style="58"/>
-    <col min="14093" max="14094" width="22" style="58" customWidth="1"/>
-    <col min="14095" max="14336" width="9.140625" style="58"/>
-    <col min="14337" max="14338" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="13.140625" style="58" customWidth="1"/>
-    <col min="14344" max="14344" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="26" style="58" customWidth="1"/>
-    <col min="14346" max="14346" width="34.85546875" style="58" customWidth="1"/>
-    <col min="14347" max="14347" width="19" style="58" customWidth="1"/>
-    <col min="14348" max="14348" width="9.140625" style="58"/>
-    <col min="14349" max="14350" width="22" style="58" customWidth="1"/>
-    <col min="14351" max="14592" width="9.140625" style="58"/>
-    <col min="14593" max="14594" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="13.140625" style="58" customWidth="1"/>
-    <col min="14600" max="14600" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="26" style="58" customWidth="1"/>
-    <col min="14602" max="14602" width="34.85546875" style="58" customWidth="1"/>
-    <col min="14603" max="14603" width="19" style="58" customWidth="1"/>
-    <col min="14604" max="14604" width="9.140625" style="58"/>
-    <col min="14605" max="14606" width="22" style="58" customWidth="1"/>
-    <col min="14607" max="14848" width="9.140625" style="58"/>
-    <col min="14849" max="14850" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="13.140625" style="58" customWidth="1"/>
-    <col min="14856" max="14856" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="26" style="58" customWidth="1"/>
-    <col min="14858" max="14858" width="34.85546875" style="58" customWidth="1"/>
-    <col min="14859" max="14859" width="19" style="58" customWidth="1"/>
-    <col min="14860" max="14860" width="9.140625" style="58"/>
-    <col min="14861" max="14862" width="22" style="58" customWidth="1"/>
-    <col min="14863" max="15104" width="9.140625" style="58"/>
-    <col min="15105" max="15106" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="13.140625" style="58" customWidth="1"/>
-    <col min="15112" max="15112" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="26" style="58" customWidth="1"/>
-    <col min="15114" max="15114" width="34.85546875" style="58" customWidth="1"/>
-    <col min="15115" max="15115" width="19" style="58" customWidth="1"/>
-    <col min="15116" max="15116" width="9.140625" style="58"/>
-    <col min="15117" max="15118" width="22" style="58" customWidth="1"/>
-    <col min="15119" max="15360" width="9.140625" style="58"/>
-    <col min="15361" max="15362" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="13.140625" style="58" customWidth="1"/>
-    <col min="15368" max="15368" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="26" style="58" customWidth="1"/>
-    <col min="15370" max="15370" width="34.85546875" style="58" customWidth="1"/>
-    <col min="15371" max="15371" width="19" style="58" customWidth="1"/>
-    <col min="15372" max="15372" width="9.140625" style="58"/>
-    <col min="15373" max="15374" width="22" style="58" customWidth="1"/>
-    <col min="15375" max="15616" width="9.140625" style="58"/>
-    <col min="15617" max="15618" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="13.140625" style="58" customWidth="1"/>
-    <col min="15624" max="15624" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="26" style="58" customWidth="1"/>
-    <col min="15626" max="15626" width="34.85546875" style="58" customWidth="1"/>
-    <col min="15627" max="15627" width="19" style="58" customWidth="1"/>
-    <col min="15628" max="15628" width="9.140625" style="58"/>
-    <col min="15629" max="15630" width="22" style="58" customWidth="1"/>
-    <col min="15631" max="15872" width="9.140625" style="58"/>
-    <col min="15873" max="15874" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="13.140625" style="58" customWidth="1"/>
-    <col min="15880" max="15880" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="26" style="58" customWidth="1"/>
-    <col min="15882" max="15882" width="34.85546875" style="58" customWidth="1"/>
-    <col min="15883" max="15883" width="19" style="58" customWidth="1"/>
-    <col min="15884" max="15884" width="9.140625" style="58"/>
-    <col min="15885" max="15886" width="22" style="58" customWidth="1"/>
-    <col min="15887" max="16128" width="9.140625" style="58"/>
-    <col min="16129" max="16130" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="14.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="9.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="14.5703125" style="58" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="10.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="13.140625" style="58" customWidth="1"/>
-    <col min="16136" max="16136" width="6.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="26" style="58" customWidth="1"/>
-    <col min="16138" max="16138" width="34.85546875" style="58" customWidth="1"/>
-    <col min="16139" max="16139" width="19" style="58" customWidth="1"/>
-    <col min="16140" max="16140" width="9.140625" style="58"/>
-    <col min="16141" max="16142" width="22" style="58" customWidth="1"/>
-    <col min="16143" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="6" style="55" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="55" customWidth="1"/>
+    <col min="10" max="10" width="26" style="55" customWidth="1"/>
+    <col min="11" max="11" width="30" style="55" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="55"/>
+    <col min="13" max="14" width="22" style="55" customWidth="1"/>
+    <col min="15" max="256" width="9.140625" style="55"/>
+    <col min="257" max="258" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="13.140625" style="55" customWidth="1"/>
+    <col min="264" max="264" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="26" style="55" customWidth="1"/>
+    <col min="266" max="266" width="34.85546875" style="55" customWidth="1"/>
+    <col min="267" max="267" width="19" style="55" customWidth="1"/>
+    <col min="268" max="268" width="9.140625" style="55"/>
+    <col min="269" max="270" width="22" style="55" customWidth="1"/>
+    <col min="271" max="512" width="9.140625" style="55"/>
+    <col min="513" max="514" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="13.140625" style="55" customWidth="1"/>
+    <col min="520" max="520" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="26" style="55" customWidth="1"/>
+    <col min="522" max="522" width="34.85546875" style="55" customWidth="1"/>
+    <col min="523" max="523" width="19" style="55" customWidth="1"/>
+    <col min="524" max="524" width="9.140625" style="55"/>
+    <col min="525" max="526" width="22" style="55" customWidth="1"/>
+    <col min="527" max="768" width="9.140625" style="55"/>
+    <col min="769" max="770" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="13.140625" style="55" customWidth="1"/>
+    <col min="776" max="776" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="26" style="55" customWidth="1"/>
+    <col min="778" max="778" width="34.85546875" style="55" customWidth="1"/>
+    <col min="779" max="779" width="19" style="55" customWidth="1"/>
+    <col min="780" max="780" width="9.140625" style="55"/>
+    <col min="781" max="782" width="22" style="55" customWidth="1"/>
+    <col min="783" max="1024" width="9.140625" style="55"/>
+    <col min="1025" max="1026" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="13.140625" style="55" customWidth="1"/>
+    <col min="1032" max="1032" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="26" style="55" customWidth="1"/>
+    <col min="1034" max="1034" width="34.85546875" style="55" customWidth="1"/>
+    <col min="1035" max="1035" width="19" style="55" customWidth="1"/>
+    <col min="1036" max="1036" width="9.140625" style="55"/>
+    <col min="1037" max="1038" width="22" style="55" customWidth="1"/>
+    <col min="1039" max="1280" width="9.140625" style="55"/>
+    <col min="1281" max="1282" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="13.140625" style="55" customWidth="1"/>
+    <col min="1288" max="1288" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="26" style="55" customWidth="1"/>
+    <col min="1290" max="1290" width="34.85546875" style="55" customWidth="1"/>
+    <col min="1291" max="1291" width="19" style="55" customWidth="1"/>
+    <col min="1292" max="1292" width="9.140625" style="55"/>
+    <col min="1293" max="1294" width="22" style="55" customWidth="1"/>
+    <col min="1295" max="1536" width="9.140625" style="55"/>
+    <col min="1537" max="1538" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="13.140625" style="55" customWidth="1"/>
+    <col min="1544" max="1544" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="26" style="55" customWidth="1"/>
+    <col min="1546" max="1546" width="34.85546875" style="55" customWidth="1"/>
+    <col min="1547" max="1547" width="19" style="55" customWidth="1"/>
+    <col min="1548" max="1548" width="9.140625" style="55"/>
+    <col min="1549" max="1550" width="22" style="55" customWidth="1"/>
+    <col min="1551" max="1792" width="9.140625" style="55"/>
+    <col min="1793" max="1794" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="13.140625" style="55" customWidth="1"/>
+    <col min="1800" max="1800" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="26" style="55" customWidth="1"/>
+    <col min="1802" max="1802" width="34.85546875" style="55" customWidth="1"/>
+    <col min="1803" max="1803" width="19" style="55" customWidth="1"/>
+    <col min="1804" max="1804" width="9.140625" style="55"/>
+    <col min="1805" max="1806" width="22" style="55" customWidth="1"/>
+    <col min="1807" max="2048" width="9.140625" style="55"/>
+    <col min="2049" max="2050" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="13.140625" style="55" customWidth="1"/>
+    <col min="2056" max="2056" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="26" style="55" customWidth="1"/>
+    <col min="2058" max="2058" width="34.85546875" style="55" customWidth="1"/>
+    <col min="2059" max="2059" width="19" style="55" customWidth="1"/>
+    <col min="2060" max="2060" width="9.140625" style="55"/>
+    <col min="2061" max="2062" width="22" style="55" customWidth="1"/>
+    <col min="2063" max="2304" width="9.140625" style="55"/>
+    <col min="2305" max="2306" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="13.140625" style="55" customWidth="1"/>
+    <col min="2312" max="2312" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="26" style="55" customWidth="1"/>
+    <col min="2314" max="2314" width="34.85546875" style="55" customWidth="1"/>
+    <col min="2315" max="2315" width="19" style="55" customWidth="1"/>
+    <col min="2316" max="2316" width="9.140625" style="55"/>
+    <col min="2317" max="2318" width="22" style="55" customWidth="1"/>
+    <col min="2319" max="2560" width="9.140625" style="55"/>
+    <col min="2561" max="2562" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="13.140625" style="55" customWidth="1"/>
+    <col min="2568" max="2568" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="26" style="55" customWidth="1"/>
+    <col min="2570" max="2570" width="34.85546875" style="55" customWidth="1"/>
+    <col min="2571" max="2571" width="19" style="55" customWidth="1"/>
+    <col min="2572" max="2572" width="9.140625" style="55"/>
+    <col min="2573" max="2574" width="22" style="55" customWidth="1"/>
+    <col min="2575" max="2816" width="9.140625" style="55"/>
+    <col min="2817" max="2818" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="13.140625" style="55" customWidth="1"/>
+    <col min="2824" max="2824" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="26" style="55" customWidth="1"/>
+    <col min="2826" max="2826" width="34.85546875" style="55" customWidth="1"/>
+    <col min="2827" max="2827" width="19" style="55" customWidth="1"/>
+    <col min="2828" max="2828" width="9.140625" style="55"/>
+    <col min="2829" max="2830" width="22" style="55" customWidth="1"/>
+    <col min="2831" max="3072" width="9.140625" style="55"/>
+    <col min="3073" max="3074" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="13.140625" style="55" customWidth="1"/>
+    <col min="3080" max="3080" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="26" style="55" customWidth="1"/>
+    <col min="3082" max="3082" width="34.85546875" style="55" customWidth="1"/>
+    <col min="3083" max="3083" width="19" style="55" customWidth="1"/>
+    <col min="3084" max="3084" width="9.140625" style="55"/>
+    <col min="3085" max="3086" width="22" style="55" customWidth="1"/>
+    <col min="3087" max="3328" width="9.140625" style="55"/>
+    <col min="3329" max="3330" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="13.140625" style="55" customWidth="1"/>
+    <col min="3336" max="3336" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="26" style="55" customWidth="1"/>
+    <col min="3338" max="3338" width="34.85546875" style="55" customWidth="1"/>
+    <col min="3339" max="3339" width="19" style="55" customWidth="1"/>
+    <col min="3340" max="3340" width="9.140625" style="55"/>
+    <col min="3341" max="3342" width="22" style="55" customWidth="1"/>
+    <col min="3343" max="3584" width="9.140625" style="55"/>
+    <col min="3585" max="3586" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="13.140625" style="55" customWidth="1"/>
+    <col min="3592" max="3592" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="26" style="55" customWidth="1"/>
+    <col min="3594" max="3594" width="34.85546875" style="55" customWidth="1"/>
+    <col min="3595" max="3595" width="19" style="55" customWidth="1"/>
+    <col min="3596" max="3596" width="9.140625" style="55"/>
+    <col min="3597" max="3598" width="22" style="55" customWidth="1"/>
+    <col min="3599" max="3840" width="9.140625" style="55"/>
+    <col min="3841" max="3842" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="13.140625" style="55" customWidth="1"/>
+    <col min="3848" max="3848" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="26" style="55" customWidth="1"/>
+    <col min="3850" max="3850" width="34.85546875" style="55" customWidth="1"/>
+    <col min="3851" max="3851" width="19" style="55" customWidth="1"/>
+    <col min="3852" max="3852" width="9.140625" style="55"/>
+    <col min="3853" max="3854" width="22" style="55" customWidth="1"/>
+    <col min="3855" max="4096" width="9.140625" style="55"/>
+    <col min="4097" max="4098" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="13.140625" style="55" customWidth="1"/>
+    <col min="4104" max="4104" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="26" style="55" customWidth="1"/>
+    <col min="4106" max="4106" width="34.85546875" style="55" customWidth="1"/>
+    <col min="4107" max="4107" width="19" style="55" customWidth="1"/>
+    <col min="4108" max="4108" width="9.140625" style="55"/>
+    <col min="4109" max="4110" width="22" style="55" customWidth="1"/>
+    <col min="4111" max="4352" width="9.140625" style="55"/>
+    <col min="4353" max="4354" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="13.140625" style="55" customWidth="1"/>
+    <col min="4360" max="4360" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="26" style="55" customWidth="1"/>
+    <col min="4362" max="4362" width="34.85546875" style="55" customWidth="1"/>
+    <col min="4363" max="4363" width="19" style="55" customWidth="1"/>
+    <col min="4364" max="4364" width="9.140625" style="55"/>
+    <col min="4365" max="4366" width="22" style="55" customWidth="1"/>
+    <col min="4367" max="4608" width="9.140625" style="55"/>
+    <col min="4609" max="4610" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="13.140625" style="55" customWidth="1"/>
+    <col min="4616" max="4616" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="26" style="55" customWidth="1"/>
+    <col min="4618" max="4618" width="34.85546875" style="55" customWidth="1"/>
+    <col min="4619" max="4619" width="19" style="55" customWidth="1"/>
+    <col min="4620" max="4620" width="9.140625" style="55"/>
+    <col min="4621" max="4622" width="22" style="55" customWidth="1"/>
+    <col min="4623" max="4864" width="9.140625" style="55"/>
+    <col min="4865" max="4866" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="13.140625" style="55" customWidth="1"/>
+    <col min="4872" max="4872" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="26" style="55" customWidth="1"/>
+    <col min="4874" max="4874" width="34.85546875" style="55" customWidth="1"/>
+    <col min="4875" max="4875" width="19" style="55" customWidth="1"/>
+    <col min="4876" max="4876" width="9.140625" style="55"/>
+    <col min="4877" max="4878" width="22" style="55" customWidth="1"/>
+    <col min="4879" max="5120" width="9.140625" style="55"/>
+    <col min="5121" max="5122" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="13.140625" style="55" customWidth="1"/>
+    <col min="5128" max="5128" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="26" style="55" customWidth="1"/>
+    <col min="5130" max="5130" width="34.85546875" style="55" customWidth="1"/>
+    <col min="5131" max="5131" width="19" style="55" customWidth="1"/>
+    <col min="5132" max="5132" width="9.140625" style="55"/>
+    <col min="5133" max="5134" width="22" style="55" customWidth="1"/>
+    <col min="5135" max="5376" width="9.140625" style="55"/>
+    <col min="5377" max="5378" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="13.140625" style="55" customWidth="1"/>
+    <col min="5384" max="5384" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="26" style="55" customWidth="1"/>
+    <col min="5386" max="5386" width="34.85546875" style="55" customWidth="1"/>
+    <col min="5387" max="5387" width="19" style="55" customWidth="1"/>
+    <col min="5388" max="5388" width="9.140625" style="55"/>
+    <col min="5389" max="5390" width="22" style="55" customWidth="1"/>
+    <col min="5391" max="5632" width="9.140625" style="55"/>
+    <col min="5633" max="5634" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="13.140625" style="55" customWidth="1"/>
+    <col min="5640" max="5640" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="26" style="55" customWidth="1"/>
+    <col min="5642" max="5642" width="34.85546875" style="55" customWidth="1"/>
+    <col min="5643" max="5643" width="19" style="55" customWidth="1"/>
+    <col min="5644" max="5644" width="9.140625" style="55"/>
+    <col min="5645" max="5646" width="22" style="55" customWidth="1"/>
+    <col min="5647" max="5888" width="9.140625" style="55"/>
+    <col min="5889" max="5890" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="13.140625" style="55" customWidth="1"/>
+    <col min="5896" max="5896" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="26" style="55" customWidth="1"/>
+    <col min="5898" max="5898" width="34.85546875" style="55" customWidth="1"/>
+    <col min="5899" max="5899" width="19" style="55" customWidth="1"/>
+    <col min="5900" max="5900" width="9.140625" style="55"/>
+    <col min="5901" max="5902" width="22" style="55" customWidth="1"/>
+    <col min="5903" max="6144" width="9.140625" style="55"/>
+    <col min="6145" max="6146" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="13.140625" style="55" customWidth="1"/>
+    <col min="6152" max="6152" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="26" style="55" customWidth="1"/>
+    <col min="6154" max="6154" width="34.85546875" style="55" customWidth="1"/>
+    <col min="6155" max="6155" width="19" style="55" customWidth="1"/>
+    <col min="6156" max="6156" width="9.140625" style="55"/>
+    <col min="6157" max="6158" width="22" style="55" customWidth="1"/>
+    <col min="6159" max="6400" width="9.140625" style="55"/>
+    <col min="6401" max="6402" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="13.140625" style="55" customWidth="1"/>
+    <col min="6408" max="6408" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="26" style="55" customWidth="1"/>
+    <col min="6410" max="6410" width="34.85546875" style="55" customWidth="1"/>
+    <col min="6411" max="6411" width="19" style="55" customWidth="1"/>
+    <col min="6412" max="6412" width="9.140625" style="55"/>
+    <col min="6413" max="6414" width="22" style="55" customWidth="1"/>
+    <col min="6415" max="6656" width="9.140625" style="55"/>
+    <col min="6657" max="6658" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="13.140625" style="55" customWidth="1"/>
+    <col min="6664" max="6664" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="26" style="55" customWidth="1"/>
+    <col min="6666" max="6666" width="34.85546875" style="55" customWidth="1"/>
+    <col min="6667" max="6667" width="19" style="55" customWidth="1"/>
+    <col min="6668" max="6668" width="9.140625" style="55"/>
+    <col min="6669" max="6670" width="22" style="55" customWidth="1"/>
+    <col min="6671" max="6912" width="9.140625" style="55"/>
+    <col min="6913" max="6914" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="13.140625" style="55" customWidth="1"/>
+    <col min="6920" max="6920" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="26" style="55" customWidth="1"/>
+    <col min="6922" max="6922" width="34.85546875" style="55" customWidth="1"/>
+    <col min="6923" max="6923" width="19" style="55" customWidth="1"/>
+    <col min="6924" max="6924" width="9.140625" style="55"/>
+    <col min="6925" max="6926" width="22" style="55" customWidth="1"/>
+    <col min="6927" max="7168" width="9.140625" style="55"/>
+    <col min="7169" max="7170" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="13.140625" style="55" customWidth="1"/>
+    <col min="7176" max="7176" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="26" style="55" customWidth="1"/>
+    <col min="7178" max="7178" width="34.85546875" style="55" customWidth="1"/>
+    <col min="7179" max="7179" width="19" style="55" customWidth="1"/>
+    <col min="7180" max="7180" width="9.140625" style="55"/>
+    <col min="7181" max="7182" width="22" style="55" customWidth="1"/>
+    <col min="7183" max="7424" width="9.140625" style="55"/>
+    <col min="7425" max="7426" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="13.140625" style="55" customWidth="1"/>
+    <col min="7432" max="7432" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="26" style="55" customWidth="1"/>
+    <col min="7434" max="7434" width="34.85546875" style="55" customWidth="1"/>
+    <col min="7435" max="7435" width="19" style="55" customWidth="1"/>
+    <col min="7436" max="7436" width="9.140625" style="55"/>
+    <col min="7437" max="7438" width="22" style="55" customWidth="1"/>
+    <col min="7439" max="7680" width="9.140625" style="55"/>
+    <col min="7681" max="7682" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="13.140625" style="55" customWidth="1"/>
+    <col min="7688" max="7688" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="26" style="55" customWidth="1"/>
+    <col min="7690" max="7690" width="34.85546875" style="55" customWidth="1"/>
+    <col min="7691" max="7691" width="19" style="55" customWidth="1"/>
+    <col min="7692" max="7692" width="9.140625" style="55"/>
+    <col min="7693" max="7694" width="22" style="55" customWidth="1"/>
+    <col min="7695" max="7936" width="9.140625" style="55"/>
+    <col min="7937" max="7938" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="13.140625" style="55" customWidth="1"/>
+    <col min="7944" max="7944" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="26" style="55" customWidth="1"/>
+    <col min="7946" max="7946" width="34.85546875" style="55" customWidth="1"/>
+    <col min="7947" max="7947" width="19" style="55" customWidth="1"/>
+    <col min="7948" max="7948" width="9.140625" style="55"/>
+    <col min="7949" max="7950" width="22" style="55" customWidth="1"/>
+    <col min="7951" max="8192" width="9.140625" style="55"/>
+    <col min="8193" max="8194" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="13.140625" style="55" customWidth="1"/>
+    <col min="8200" max="8200" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="26" style="55" customWidth="1"/>
+    <col min="8202" max="8202" width="34.85546875" style="55" customWidth="1"/>
+    <col min="8203" max="8203" width="19" style="55" customWidth="1"/>
+    <col min="8204" max="8204" width="9.140625" style="55"/>
+    <col min="8205" max="8206" width="22" style="55" customWidth="1"/>
+    <col min="8207" max="8448" width="9.140625" style="55"/>
+    <col min="8449" max="8450" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="13.140625" style="55" customWidth="1"/>
+    <col min="8456" max="8456" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="26" style="55" customWidth="1"/>
+    <col min="8458" max="8458" width="34.85546875" style="55" customWidth="1"/>
+    <col min="8459" max="8459" width="19" style="55" customWidth="1"/>
+    <col min="8460" max="8460" width="9.140625" style="55"/>
+    <col min="8461" max="8462" width="22" style="55" customWidth="1"/>
+    <col min="8463" max="8704" width="9.140625" style="55"/>
+    <col min="8705" max="8706" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="13.140625" style="55" customWidth="1"/>
+    <col min="8712" max="8712" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="26" style="55" customWidth="1"/>
+    <col min="8714" max="8714" width="34.85546875" style="55" customWidth="1"/>
+    <col min="8715" max="8715" width="19" style="55" customWidth="1"/>
+    <col min="8716" max="8716" width="9.140625" style="55"/>
+    <col min="8717" max="8718" width="22" style="55" customWidth="1"/>
+    <col min="8719" max="8960" width="9.140625" style="55"/>
+    <col min="8961" max="8962" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="13.140625" style="55" customWidth="1"/>
+    <col min="8968" max="8968" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="26" style="55" customWidth="1"/>
+    <col min="8970" max="8970" width="34.85546875" style="55" customWidth="1"/>
+    <col min="8971" max="8971" width="19" style="55" customWidth="1"/>
+    <col min="8972" max="8972" width="9.140625" style="55"/>
+    <col min="8973" max="8974" width="22" style="55" customWidth="1"/>
+    <col min="8975" max="9216" width="9.140625" style="55"/>
+    <col min="9217" max="9218" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="13.140625" style="55" customWidth="1"/>
+    <col min="9224" max="9224" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="26" style="55" customWidth="1"/>
+    <col min="9226" max="9226" width="34.85546875" style="55" customWidth="1"/>
+    <col min="9227" max="9227" width="19" style="55" customWidth="1"/>
+    <col min="9228" max="9228" width="9.140625" style="55"/>
+    <col min="9229" max="9230" width="22" style="55" customWidth="1"/>
+    <col min="9231" max="9472" width="9.140625" style="55"/>
+    <col min="9473" max="9474" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="13.140625" style="55" customWidth="1"/>
+    <col min="9480" max="9480" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="26" style="55" customWidth="1"/>
+    <col min="9482" max="9482" width="34.85546875" style="55" customWidth="1"/>
+    <col min="9483" max="9483" width="19" style="55" customWidth="1"/>
+    <col min="9484" max="9484" width="9.140625" style="55"/>
+    <col min="9485" max="9486" width="22" style="55" customWidth="1"/>
+    <col min="9487" max="9728" width="9.140625" style="55"/>
+    <col min="9729" max="9730" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="13.140625" style="55" customWidth="1"/>
+    <col min="9736" max="9736" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="26" style="55" customWidth="1"/>
+    <col min="9738" max="9738" width="34.85546875" style="55" customWidth="1"/>
+    <col min="9739" max="9739" width="19" style="55" customWidth="1"/>
+    <col min="9740" max="9740" width="9.140625" style="55"/>
+    <col min="9741" max="9742" width="22" style="55" customWidth="1"/>
+    <col min="9743" max="9984" width="9.140625" style="55"/>
+    <col min="9985" max="9986" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="13.140625" style="55" customWidth="1"/>
+    <col min="9992" max="9992" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="26" style="55" customWidth="1"/>
+    <col min="9994" max="9994" width="34.85546875" style="55" customWidth="1"/>
+    <col min="9995" max="9995" width="19" style="55" customWidth="1"/>
+    <col min="9996" max="9996" width="9.140625" style="55"/>
+    <col min="9997" max="9998" width="22" style="55" customWidth="1"/>
+    <col min="9999" max="10240" width="9.140625" style="55"/>
+    <col min="10241" max="10242" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="13.140625" style="55" customWidth="1"/>
+    <col min="10248" max="10248" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="26" style="55" customWidth="1"/>
+    <col min="10250" max="10250" width="34.85546875" style="55" customWidth="1"/>
+    <col min="10251" max="10251" width="19" style="55" customWidth="1"/>
+    <col min="10252" max="10252" width="9.140625" style="55"/>
+    <col min="10253" max="10254" width="22" style="55" customWidth="1"/>
+    <col min="10255" max="10496" width="9.140625" style="55"/>
+    <col min="10497" max="10498" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="13.140625" style="55" customWidth="1"/>
+    <col min="10504" max="10504" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="26" style="55" customWidth="1"/>
+    <col min="10506" max="10506" width="34.85546875" style="55" customWidth="1"/>
+    <col min="10507" max="10507" width="19" style="55" customWidth="1"/>
+    <col min="10508" max="10508" width="9.140625" style="55"/>
+    <col min="10509" max="10510" width="22" style="55" customWidth="1"/>
+    <col min="10511" max="10752" width="9.140625" style="55"/>
+    <col min="10753" max="10754" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="13.140625" style="55" customWidth="1"/>
+    <col min="10760" max="10760" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="26" style="55" customWidth="1"/>
+    <col min="10762" max="10762" width="34.85546875" style="55" customWidth="1"/>
+    <col min="10763" max="10763" width="19" style="55" customWidth="1"/>
+    <col min="10764" max="10764" width="9.140625" style="55"/>
+    <col min="10765" max="10766" width="22" style="55" customWidth="1"/>
+    <col min="10767" max="11008" width="9.140625" style="55"/>
+    <col min="11009" max="11010" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="13.140625" style="55" customWidth="1"/>
+    <col min="11016" max="11016" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="26" style="55" customWidth="1"/>
+    <col min="11018" max="11018" width="34.85546875" style="55" customWidth="1"/>
+    <col min="11019" max="11019" width="19" style="55" customWidth="1"/>
+    <col min="11020" max="11020" width="9.140625" style="55"/>
+    <col min="11021" max="11022" width="22" style="55" customWidth="1"/>
+    <col min="11023" max="11264" width="9.140625" style="55"/>
+    <col min="11265" max="11266" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="13.140625" style="55" customWidth="1"/>
+    <col min="11272" max="11272" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="26" style="55" customWidth="1"/>
+    <col min="11274" max="11274" width="34.85546875" style="55" customWidth="1"/>
+    <col min="11275" max="11275" width="19" style="55" customWidth="1"/>
+    <col min="11276" max="11276" width="9.140625" style="55"/>
+    <col min="11277" max="11278" width="22" style="55" customWidth="1"/>
+    <col min="11279" max="11520" width="9.140625" style="55"/>
+    <col min="11521" max="11522" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="13.140625" style="55" customWidth="1"/>
+    <col min="11528" max="11528" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="26" style="55" customWidth="1"/>
+    <col min="11530" max="11530" width="34.85546875" style="55" customWidth="1"/>
+    <col min="11531" max="11531" width="19" style="55" customWidth="1"/>
+    <col min="11532" max="11532" width="9.140625" style="55"/>
+    <col min="11533" max="11534" width="22" style="55" customWidth="1"/>
+    <col min="11535" max="11776" width="9.140625" style="55"/>
+    <col min="11777" max="11778" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="13.140625" style="55" customWidth="1"/>
+    <col min="11784" max="11784" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="26" style="55" customWidth="1"/>
+    <col min="11786" max="11786" width="34.85546875" style="55" customWidth="1"/>
+    <col min="11787" max="11787" width="19" style="55" customWidth="1"/>
+    <col min="11788" max="11788" width="9.140625" style="55"/>
+    <col min="11789" max="11790" width="22" style="55" customWidth="1"/>
+    <col min="11791" max="12032" width="9.140625" style="55"/>
+    <col min="12033" max="12034" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="13.140625" style="55" customWidth="1"/>
+    <col min="12040" max="12040" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="26" style="55" customWidth="1"/>
+    <col min="12042" max="12042" width="34.85546875" style="55" customWidth="1"/>
+    <col min="12043" max="12043" width="19" style="55" customWidth="1"/>
+    <col min="12044" max="12044" width="9.140625" style="55"/>
+    <col min="12045" max="12046" width="22" style="55" customWidth="1"/>
+    <col min="12047" max="12288" width="9.140625" style="55"/>
+    <col min="12289" max="12290" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="13.140625" style="55" customWidth="1"/>
+    <col min="12296" max="12296" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="26" style="55" customWidth="1"/>
+    <col min="12298" max="12298" width="34.85546875" style="55" customWidth="1"/>
+    <col min="12299" max="12299" width="19" style="55" customWidth="1"/>
+    <col min="12300" max="12300" width="9.140625" style="55"/>
+    <col min="12301" max="12302" width="22" style="55" customWidth="1"/>
+    <col min="12303" max="12544" width="9.140625" style="55"/>
+    <col min="12545" max="12546" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="13.140625" style="55" customWidth="1"/>
+    <col min="12552" max="12552" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="26" style="55" customWidth="1"/>
+    <col min="12554" max="12554" width="34.85546875" style="55" customWidth="1"/>
+    <col min="12555" max="12555" width="19" style="55" customWidth="1"/>
+    <col min="12556" max="12556" width="9.140625" style="55"/>
+    <col min="12557" max="12558" width="22" style="55" customWidth="1"/>
+    <col min="12559" max="12800" width="9.140625" style="55"/>
+    <col min="12801" max="12802" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="13.140625" style="55" customWidth="1"/>
+    <col min="12808" max="12808" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="26" style="55" customWidth="1"/>
+    <col min="12810" max="12810" width="34.85546875" style="55" customWidth="1"/>
+    <col min="12811" max="12811" width="19" style="55" customWidth="1"/>
+    <col min="12812" max="12812" width="9.140625" style="55"/>
+    <col min="12813" max="12814" width="22" style="55" customWidth="1"/>
+    <col min="12815" max="13056" width="9.140625" style="55"/>
+    <col min="13057" max="13058" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="13.140625" style="55" customWidth="1"/>
+    <col min="13064" max="13064" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="26" style="55" customWidth="1"/>
+    <col min="13066" max="13066" width="34.85546875" style="55" customWidth="1"/>
+    <col min="13067" max="13067" width="19" style="55" customWidth="1"/>
+    <col min="13068" max="13068" width="9.140625" style="55"/>
+    <col min="13069" max="13070" width="22" style="55" customWidth="1"/>
+    <col min="13071" max="13312" width="9.140625" style="55"/>
+    <col min="13313" max="13314" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="13.140625" style="55" customWidth="1"/>
+    <col min="13320" max="13320" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="26" style="55" customWidth="1"/>
+    <col min="13322" max="13322" width="34.85546875" style="55" customWidth="1"/>
+    <col min="13323" max="13323" width="19" style="55" customWidth="1"/>
+    <col min="13324" max="13324" width="9.140625" style="55"/>
+    <col min="13325" max="13326" width="22" style="55" customWidth="1"/>
+    <col min="13327" max="13568" width="9.140625" style="55"/>
+    <col min="13569" max="13570" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="13.140625" style="55" customWidth="1"/>
+    <col min="13576" max="13576" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="26" style="55" customWidth="1"/>
+    <col min="13578" max="13578" width="34.85546875" style="55" customWidth="1"/>
+    <col min="13579" max="13579" width="19" style="55" customWidth="1"/>
+    <col min="13580" max="13580" width="9.140625" style="55"/>
+    <col min="13581" max="13582" width="22" style="55" customWidth="1"/>
+    <col min="13583" max="13824" width="9.140625" style="55"/>
+    <col min="13825" max="13826" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="13.140625" style="55" customWidth="1"/>
+    <col min="13832" max="13832" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="26" style="55" customWidth="1"/>
+    <col min="13834" max="13834" width="34.85546875" style="55" customWidth="1"/>
+    <col min="13835" max="13835" width="19" style="55" customWidth="1"/>
+    <col min="13836" max="13836" width="9.140625" style="55"/>
+    <col min="13837" max="13838" width="22" style="55" customWidth="1"/>
+    <col min="13839" max="14080" width="9.140625" style="55"/>
+    <col min="14081" max="14082" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="13.140625" style="55" customWidth="1"/>
+    <col min="14088" max="14088" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="26" style="55" customWidth="1"/>
+    <col min="14090" max="14090" width="34.85546875" style="55" customWidth="1"/>
+    <col min="14091" max="14091" width="19" style="55" customWidth="1"/>
+    <col min="14092" max="14092" width="9.140625" style="55"/>
+    <col min="14093" max="14094" width="22" style="55" customWidth="1"/>
+    <col min="14095" max="14336" width="9.140625" style="55"/>
+    <col min="14337" max="14338" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="13.140625" style="55" customWidth="1"/>
+    <col min="14344" max="14344" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="26" style="55" customWidth="1"/>
+    <col min="14346" max="14346" width="34.85546875" style="55" customWidth="1"/>
+    <col min="14347" max="14347" width="19" style="55" customWidth="1"/>
+    <col min="14348" max="14348" width="9.140625" style="55"/>
+    <col min="14349" max="14350" width="22" style="55" customWidth="1"/>
+    <col min="14351" max="14592" width="9.140625" style="55"/>
+    <col min="14593" max="14594" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="13.140625" style="55" customWidth="1"/>
+    <col min="14600" max="14600" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="26" style="55" customWidth="1"/>
+    <col min="14602" max="14602" width="34.85546875" style="55" customWidth="1"/>
+    <col min="14603" max="14603" width="19" style="55" customWidth="1"/>
+    <col min="14604" max="14604" width="9.140625" style="55"/>
+    <col min="14605" max="14606" width="22" style="55" customWidth="1"/>
+    <col min="14607" max="14848" width="9.140625" style="55"/>
+    <col min="14849" max="14850" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="13.140625" style="55" customWidth="1"/>
+    <col min="14856" max="14856" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="26" style="55" customWidth="1"/>
+    <col min="14858" max="14858" width="34.85546875" style="55" customWidth="1"/>
+    <col min="14859" max="14859" width="19" style="55" customWidth="1"/>
+    <col min="14860" max="14860" width="9.140625" style="55"/>
+    <col min="14861" max="14862" width="22" style="55" customWidth="1"/>
+    <col min="14863" max="15104" width="9.140625" style="55"/>
+    <col min="15105" max="15106" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="13.140625" style="55" customWidth="1"/>
+    <col min="15112" max="15112" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="26" style="55" customWidth="1"/>
+    <col min="15114" max="15114" width="34.85546875" style="55" customWidth="1"/>
+    <col min="15115" max="15115" width="19" style="55" customWidth="1"/>
+    <col min="15116" max="15116" width="9.140625" style="55"/>
+    <col min="15117" max="15118" width="22" style="55" customWidth="1"/>
+    <col min="15119" max="15360" width="9.140625" style="55"/>
+    <col min="15361" max="15362" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="13.140625" style="55" customWidth="1"/>
+    <col min="15368" max="15368" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="26" style="55" customWidth="1"/>
+    <col min="15370" max="15370" width="34.85546875" style="55" customWidth="1"/>
+    <col min="15371" max="15371" width="19" style="55" customWidth="1"/>
+    <col min="15372" max="15372" width="9.140625" style="55"/>
+    <col min="15373" max="15374" width="22" style="55" customWidth="1"/>
+    <col min="15375" max="15616" width="9.140625" style="55"/>
+    <col min="15617" max="15618" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="13.140625" style="55" customWidth="1"/>
+    <col min="15624" max="15624" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="26" style="55" customWidth="1"/>
+    <col min="15626" max="15626" width="34.85546875" style="55" customWidth="1"/>
+    <col min="15627" max="15627" width="19" style="55" customWidth="1"/>
+    <col min="15628" max="15628" width="9.140625" style="55"/>
+    <col min="15629" max="15630" width="22" style="55" customWidth="1"/>
+    <col min="15631" max="15872" width="9.140625" style="55"/>
+    <col min="15873" max="15874" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="13.140625" style="55" customWidth="1"/>
+    <col min="15880" max="15880" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="26" style="55" customWidth="1"/>
+    <col min="15882" max="15882" width="34.85546875" style="55" customWidth="1"/>
+    <col min="15883" max="15883" width="19" style="55" customWidth="1"/>
+    <col min="15884" max="15884" width="9.140625" style="55"/>
+    <col min="15885" max="15886" width="22" style="55" customWidth="1"/>
+    <col min="15887" max="16128" width="9.140625" style="55"/>
+    <col min="16129" max="16130" width="7" style="55" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="14.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="14.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="10.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="13.140625" style="55" customWidth="1"/>
+    <col min="16136" max="16136" width="6.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="26" style="55" customWidth="1"/>
+    <col min="16138" max="16138" width="34.85546875" style="55" customWidth="1"/>
+    <col min="16139" max="16139" width="19" style="55" customWidth="1"/>
+    <col min="16140" max="16140" width="9.140625" style="55"/>
+    <col min="16141" max="16142" width="22" style="55" customWidth="1"/>
+    <col min="16143" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:11" s="54" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="56" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="57" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="57" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="57" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="57" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="58" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="57" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="60" t="s">
+    <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="57" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="61" t="s">
+    <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="58" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="60" t="s">
+    <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="60" t="s">
+    <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="60" t="s">
+    <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="61" t="s">
+    <row r="22" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="58" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="60" t="s">
+    <row r="23" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="57" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="60" t="s">
+    <row r="24" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="60" t="s">
+    <row r="25" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="57" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="60" t="s">
+    <row r="26" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="61" t="s">
+    <row r="27" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="60" t="s">
+    <row r="28" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="60" t="s">
+    <row r="29" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="60" t="s">
+    <row r="30" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="64" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63" t="s">
+    <row r="31" spans="4:4" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66" t="s">
+    </row>
+    <row r="32" spans="4:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
     </row>
     <row r="33" spans="1:11" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="178"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="E33" s="177"/>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="67">
+      <c r="D34" s="62">
         <v>4290</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
     </row>
     <row r="35" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="67">
+      <c r="D35" s="62">
         <v>5082</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E35" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
     </row>
     <row r="36" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="67">
+      <c r="D36" s="62">
         <v>4356</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="E36" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
     </row>
     <row r="37" spans="1:11" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="67">
+      <c r="D37" s="62">
         <v>5929</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="E37" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="67">
+      <c r="D38" s="62">
         <v>5005</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
     </row>
     <row r="39" spans="1:11" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="69">
+      <c r="D39" s="64">
         <v>4225</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
     </row>
     <row r="40" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="185" t="s">
+    <row r="41" spans="1:11" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="185"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="185"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="185"/>
-      <c r="K41" s="185"/>
-    </row>
-    <row r="42" spans="1:11" s="57" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="186" t="s">
+      <c r="B41" s="183"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+    </row>
+    <row r="42" spans="1:11" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="184" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="186"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="186"/>
-      <c r="K42" s="186"/>
-    </row>
-    <row r="43" spans="1:11" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="187" t="s">
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="184"/>
+      <c r="J42" s="184"/>
+      <c r="K42" s="184"/>
+    </row>
+    <row r="43" spans="1:11" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="B43" s="187"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="187"/>
-      <c r="K43" s="187"/>
-    </row>
-    <row r="44" spans="1:11" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="188" t="s">
+      <c r="B43" s="185"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="185"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="185"/>
+      <c r="G43" s="185"/>
+      <c r="H43" s="185"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="185"/>
+      <c r="K43" s="185"/>
+    </row>
+    <row r="44" spans="1:11" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="188"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="188"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
-      <c r="J44" s="188"/>
-      <c r="K44" s="188"/>
+      <c r="B44" s="186"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="186"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="186"/>
+      <c r="G44" s="186"/>
+      <c r="H44" s="186"/>
+      <c r="I44" s="186"/>
+      <c r="J44" s="186"/>
+      <c r="K44" s="186"/>
     </row>
     <row r="45" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="179" t="s">
+      <c r="A46" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="180"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
-      <c r="G46" s="180"/>
-      <c r="H46" s="180"/>
-      <c r="I46" s="180"/>
-      <c r="J46" s="180"/>
-      <c r="K46" s="180"/>
-    </row>
-    <row r="47" spans="1:11" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="81" t="s">
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="179"/>
+      <c r="H46" s="179"/>
+      <c r="I46" s="179"/>
+      <c r="J46" s="179"/>
+      <c r="K46" s="179"/>
+    </row>
+    <row r="47" spans="1:11" s="66" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="181" t="s">
+      <c r="B47" s="75"/>
+      <c r="C47" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="181"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="181"/>
-      <c r="K47" s="181"/>
-    </row>
-    <row r="48" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="184"/>
-      <c r="B48" s="184" t="s">
+      <c r="D47" s="180"/>
+      <c r="E47" s="180"/>
+      <c r="F47" s="180"/>
+      <c r="G47" s="180"/>
+      <c r="H47" s="180"/>
+      <c r="I47" s="180"/>
+      <c r="J47" s="180"/>
+      <c r="K47" s="180"/>
+    </row>
+    <row r="48" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="173"/>
+      <c r="B48" s="173" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="184" t="s">
+      <c r="C48" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="184" t="s">
+      <c r="D48" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="184" t="s">
+      <c r="E48" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="184" t="s">
+      <c r="F48" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="184" t="s">
+      <c r="G48" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="191" t="s">
+      <c r="H48" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="I48" s="192"/>
-      <c r="J48" s="192"/>
-      <c r="K48" s="192"/>
-    </row>
-    <row r="49" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="184"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="184"/>
-      <c r="D49" s="184"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="184"/>
-      <c r="G49" s="184"/>
-      <c r="H49" s="182" t="s">
+      <c r="I48" s="175"/>
+      <c r="J48" s="175"/>
+      <c r="K48" s="175"/>
+    </row>
+    <row r="49" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="173"/>
+      <c r="B49" s="173"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="173"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="173"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="I49" s="183"/>
-      <c r="J49" s="73" t="s">
+      <c r="I49" s="182"/>
+      <c r="J49" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="K49" s="73" t="s">
+      <c r="K49" s="68" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="72" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="100">
+    <row r="50" spans="1:11" s="67" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="95">
         <v>1</v>
       </c>
-      <c r="B50" s="101" t="s">
+      <c r="B50" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="69">
         <v>45553</v>
       </c>
-      <c r="D50" s="75" t="s">
+      <c r="D50" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="75" t="s">
+      <c r="E50" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F50" s="76" t="str">
+      <c r="F50" s="71" t="str">
         <f>IF(OR((CODE($D50)*CODE($E50))=$D$36,(CODE($D50)*CODE($E50))=$D$35),$D$15,IF(OR((CODE($D50)*CODE($E50))=$D$34,(CODE($D50)*CODE($E50))=$D$37),$D$16,IF(OR((CODE($D50)*CODE($E50))=$D$38,(CODE($D50)*CODE($E50))=$D$39),$D$17,)))</f>
         <v>Alta</v>
       </c>
-      <c r="G50" s="75" t="s">
+      <c r="G50" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="H50" s="189"/>
-      <c r="I50" s="190"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79" t="s">
+      <c r="H50" s="171"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="100">
+    <row r="51" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="95">
         <v>2</v>
       </c>
-      <c r="B51" s="101" t="s">
+      <c r="B51" s="96" t="s">
         <v>279</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C51" s="69">
         <v>45553</v>
       </c>
-      <c r="D51" s="75" t="s">
+      <c r="D51" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="75" t="s">
+      <c r="E51" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="76" t="str">
+      <c r="F51" s="71" t="str">
         <f t="shared" ref="F51:F58" si="0">IF(OR((CODE($D51)*CODE($E51))=$D$36,(CODE($D51)*CODE($E51))=$D$35),$D$15,IF(OR((CODE($D51)*CODE($E51))=$D$34,(CODE($D51)*CODE($E51))=$D$37),$D$16,IF(OR((CODE($D51)*CODE($E51))=$D$38,(CODE($D51)*CODE($E51))=$D$39),$D$17,)))</f>
         <v>Média</v>
       </c>
-      <c r="G51" s="75" t="s">
+      <c r="G51" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="H51" s="77"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-    </row>
-    <row r="52" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="100"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76" t="e">
+      <c r="H51" s="72"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+    </row>
+    <row r="52" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="95"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="75"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-    </row>
-    <row r="53" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="100"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="76" t="e">
+      <c r="G52" s="70"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+    </row>
+    <row r="53" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="95"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G53" s="75"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-    </row>
-    <row r="54" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="100"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="76" t="e">
+      <c r="G53" s="70"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+    </row>
+    <row r="54" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="95"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G54" s="75"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-    </row>
-    <row r="55" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="100"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="76" t="e">
+      <c r="G54" s="70"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+    </row>
+    <row r="55" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="95"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G55" s="75"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-    </row>
-    <row r="56" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="100"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="76" t="e">
+      <c r="G55" s="70"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+    </row>
+    <row r="56" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="95"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G56" s="75"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-    </row>
-    <row r="57" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="100"/>
-      <c r="B57" s="101"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="76" t="e">
+      <c r="G56" s="70"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+    </row>
+    <row r="57" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="95"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G57" s="75"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-    </row>
-    <row r="58" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="100"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="76" t="e">
+      <c r="G57" s="70"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+    </row>
+    <row r="58" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="95"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="75"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-    </row>
-    <row r="59" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="100"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="76" t="e">
+      <c r="G58" s="70"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+    </row>
+    <row r="59" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="95"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="71" t="e">
         <f>IF(OR((CODE($D59)*CODE($E59))=$D$36,(CODE($D59)*CODE($E59))=$D$35),$D$15,IF(OR((CODE($D59)*CODE($E59))=$D$34,(CODE($D59)*CODE($E59))=$D$37),$D$16,IF(OR((CODE($D59)*CODE($E59))=$D$38,(CODE($D59)*CODE($E59))=$D$39),$D$17,)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="75"/>
-      <c r="H59" s="189"/>
-      <c r="I59" s="190"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-    </row>
-    <row r="60" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="100"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="76" t="e">
+      <c r="G59" s="70"/>
+      <c r="H59" s="171"/>
+      <c r="I59" s="172"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+    </row>
+    <row r="60" spans="1:11" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="95"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="71" t="e">
         <f>IF(OR((CODE($D60)*CODE($E60))=$D$36,(CODE($D60)*CODE($E60))=$D$35),$D$15,IF(OR((CODE($D60)*CODE($E60))=$D$34,(CODE($D60)*CODE($E60))=$D$37),$D$16,IF(OR((CODE($D60)*CODE($E60))=$D$38,(CODE($D60)*CODE($E60))=$D$39),$D$17,)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G60" s="75"/>
-      <c r="H60" s="189"/>
-      <c r="I60" s="190"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="171"/>
+      <c r="I60" s="172"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:K48"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A46:K46"/>
@@ -10170,15 +10171,24 @@
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A44:K44"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:K48"/>
   </mergeCells>
   <conditionalFormatting sqref="F50:F60">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>$D$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="equal">
       <formula>$D$17</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10207,7 +10217,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10220,120 +10230,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="187" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="173" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="173"/>
+      <c r="D2" s="167"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="84" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="91">
+      <c r="A4" s="86">
         <v>1</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="88">
+        <v>45600</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="91">
+      <c r="A5" s="86">
         <v>2</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="70"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="91">
+      <c r="A6" s="86">
         <v>3</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="75"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="70"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="91">
+      <c r="A7" s="86">
         <v>4</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="75"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="91">
+      <c r="A8" s="86">
         <v>5</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="75"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="70"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="91">
+      <c r="A9" s="86">
         <v>6</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="75"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="70"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="91">
+      <c r="A10" s="86">
         <v>7</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="75"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="70"/>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="91">
+      <c r="A11" s="86">
         <v>8</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="75"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="70"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="91">
+      <c r="A12" s="86">
         <v>9</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="75"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="91">
+      <c r="A13" s="86">
         <v>10</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="75"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="70"/>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
@@ -10345,10 +10361,10 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:C13">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="22" stopIfTrue="1">
       <formula>OR(#REF!="Planned",#REF!="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="23" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10387,39 +10403,39 @@
       <c r="B1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="44">
+      <c r="C1" s="42">
         <v>45553</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="117" t="s">
         <v>195</v>
       </c>
       <c r="B2" s="15">
@@ -10439,7 +10455,7 @@
       <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="117" t="s">
         <v>193</v>
       </c>
       <c r="B3" s="15">
@@ -10459,7 +10475,7 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="117" t="s">
         <v>192</v>
       </c>
       <c r="B4" s="15">
@@ -10479,7 +10495,7 @@
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="117" t="s">
         <v>194</v>
       </c>
       <c r="B5" s="15">
@@ -10499,7 +10515,7 @@
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="117" t="s">
         <v>197</v>
       </c>
       <c r="B6" s="15">
@@ -10521,7 +10537,7 @@
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="117" t="s">
         <v>202</v>
       </c>
       <c r="B7" s="15">
@@ -10599,210 +10615,210 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="37">
         <f>SUM(B2:B11)</f>
         <v>12</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="37">
         <f>IF(SUM(C2:C11)&gt;0,B12-SUM(C2:C11), "")</f>
         <v>8</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="37">
         <f t="shared" ref="D12:K12" si="0">IF(SUM(D2:D11)&gt;0,C12-SUM(D2:D11), "")</f>
         <v>4</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="37">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="37">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="37">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="39" t="str">
+      <c r="I12" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="39" t="str">
+      <c r="J12" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K12" s="39" t="str">
+      <c r="K12" s="37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L12" s="39" t="str">
+      <c r="L12" s="37" t="str">
         <f>IF(SUM(L2:L11)&gt;0,K12-SUM(L2:L11), "")</f>
         <v/>
       </c>
-      <c r="M12" s="34"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="34">
         <f>B12</f>
         <v>12</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="35">
         <f>B13-($B$13/COUNTA($C$1:$L$1))</f>
         <v>10.8</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="35">
         <f t="shared" ref="D13:L13" si="1">C13-($B$13/COUNTA($C$1:$L$1))</f>
         <v>9.6000000000000014</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="35">
         <f t="shared" si="1"/>
         <v>8.4000000000000021</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="35">
         <f t="shared" si="1"/>
         <v>7.200000000000002</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="35">
         <f t="shared" si="1"/>
         <v>6.0000000000000018</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="35">
         <f t="shared" si="1"/>
         <v>4.8000000000000016</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="35">
         <f t="shared" si="1"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="35">
         <f t="shared" si="1"/>
         <v>2.4000000000000012</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="35">
         <f t="shared" si="1"/>
         <v>1.2000000000000013</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
         <v>12</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="39">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
         <v>8</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="39">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
         <v>4</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="39">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
         <v>3</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="39">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
         <v>2</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
         <v>1</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="39">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
         <v>0</v>
       </c>
-      <c r="I14" s="41" t="e">
+      <c r="I14" s="39" t="e">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J14" s="41" t="e">
+      <c r="J14" s="39" t="e">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K14" s="41" t="e">
+      <c r="K14" s="39" t="e">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L14" s="41" t="e">
+      <c r="L14" s="39" t="e">
         <f ca="1">OFFSET(Sprint1!$B$12,0,0,1,COUNT(Sprint1!$B$12:$L$12))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="40">
         <f ca="1">B14/$B$13</f>
         <v>1</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="40">
         <f ca="1">100%-(C14/$B$13)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="40">
         <f t="shared" ref="D15:L15" ca="1" si="2">100%-(D14/$B$13)</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="40">
         <f t="shared" ca="1" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="40">
         <f t="shared" ca="1" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="40">
         <f t="shared" ca="1" si="2"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="40">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="I15" s="42" t="e">
+      <c r="I15" s="40" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J15" s="42" t="e">
+      <c r="J15" s="40" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="42" t="e">
+      <c r="K15" s="40" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L15" s="42" t="e">
+      <c r="L15" s="40" t="e">
         <f t="shared" ca="1" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="43">
         <v>24</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10810,7 +10826,7 @@
       <c r="N19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="47" t="s">
+      <c r="O19" s="45" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10848,432 +10864,432 @@
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="57" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="201" t="s">
+    <row r="1" spans="1:23" s="54" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="195" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-    </row>
-    <row r="2" spans="1:23" s="103" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="202" t="s">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+    </row>
+    <row r="2" spans="1:23" s="98" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-    </row>
-    <row r="3" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="203" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+    </row>
+    <row r="3" spans="1:23" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="197" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-    </row>
-    <row r="4" spans="1:23" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="204" t="s">
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+    </row>
+    <row r="4" spans="1:23" s="98" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="198" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-    </row>
-    <row r="5" spans="1:23" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="205" t="s">
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="198"/>
+    </row>
+    <row r="5" spans="1:23" s="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="199" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
     </row>
     <row r="6" spans="1:23" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="193" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="200"/>
-      <c r="D7" s="199" t="s">
+      <c r="B7" s="194"/>
+      <c r="D7" s="193" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="G7" s="195" t="s">
+      <c r="E7" s="194"/>
+      <c r="G7" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="M7" s="199" t="s">
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="M7" s="193" t="s">
         <v>173</v>
       </c>
-      <c r="N7" s="200"/>
+      <c r="N7" s="194"/>
     </row>
     <row r="8" spans="1:23" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="M8" s="105" t="s">
+      <c r="M8" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="N8" s="105" t="s">
+      <c r="N8" s="100" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H9" s="97">
         <v>2</v>
       </c>
-      <c r="I9" s="102">
+      <c r="I9" s="97">
         <v>0</v>
       </c>
-      <c r="J9" s="102">
+      <c r="J9" s="97">
         <v>0</v>
       </c>
-      <c r="K9" s="105">
+      <c r="K9" s="100">
         <f>(H9*4)+(I9*6)+(J9*8)</f>
         <v>8</v>
       </c>
-      <c r="M9" s="108" t="s">
+      <c r="M9" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="N9" s="110"/>
+      <c r="N9" s="105"/>
     </row>
     <row r="10" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="106"/>
-      <c r="G10" s="104" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="101"/>
+      <c r="G10" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="105">
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="100">
         <f>(H10*3)+(I10*4)+(J10*6)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="108" t="s">
+      <c r="M10" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="N10" s="110"/>
+      <c r="N10" s="105"/>
     </row>
     <row r="11" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
-      <c r="B11" s="106"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="106"/>
-      <c r="G11" s="195" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="101"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="101"/>
+      <c r="G11" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="M11" s="108" t="s">
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="M11" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="N11" s="110"/>
+      <c r="N11" s="105"/>
     </row>
     <row r="12" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="102"/>
-      <c r="B12" s="106"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="106"/>
-      <c r="G12" s="104" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="101"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="101"/>
+      <c r="G12" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="J12" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="K12" s="105" t="s">
+      <c r="K12" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="M12" s="108" t="s">
+      <c r="M12" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="N12" s="110"/>
+      <c r="N12" s="105"/>
     </row>
     <row r="13" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="106"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="106"/>
-      <c r="G13" s="104" t="s">
+      <c r="A13" s="97"/>
+      <c r="B13" s="101"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="101"/>
+      <c r="G13" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="102">
+      <c r="H13" s="97">
         <v>1</v>
       </c>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="105">
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="100">
         <f>(H13*3)+(I13*4)+(J13*6)</f>
         <v>3</v>
       </c>
-      <c r="M13" s="108" t="s">
+      <c r="M13" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="N13" s="110"/>
+      <c r="N13" s="105"/>
       <c r="W13" s="22" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="102"/>
-      <c r="B14" s="106"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="106"/>
-      <c r="G14" s="104" t="s">
+      <c r="A14" s="97"/>
+      <c r="B14" s="101"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="101"/>
+      <c r="G14" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="105">
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="100">
         <f>(H14*4)+(I14*5)+(J14*7)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="108" t="s">
+      <c r="M14" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="N14" s="110"/>
+      <c r="N14" s="105"/>
     </row>
     <row r="15" spans="1:23" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="102"/>
-      <c r="B15" s="106"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="106"/>
-      <c r="G15" s="104" t="s">
+      <c r="A15" s="97"/>
+      <c r="B15" s="101"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="101"/>
+      <c r="G15" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="102">
+      <c r="H15" s="97">
         <v>1</v>
       </c>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="105">
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="100">
         <f>(H15*3)+(I15*4)+(J15*6)</f>
         <v>3</v>
       </c>
-      <c r="M15" s="108" t="s">
+      <c r="M15" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="N15" s="110"/>
+      <c r="N15" s="105"/>
     </row>
     <row r="16" spans="1:23" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
-      <c r="B16" s="106"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="106"/>
-      <c r="G16" s="196" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="101"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="101"/>
+      <c r="G16" s="190" t="s">
         <v>148</v>
       </c>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="107">
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="102">
         <f>SUM(K9,K10,K13,K14,K15)</f>
         <v>14</v>
       </c>
-      <c r="M16" s="108" t="s">
+      <c r="M16" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="N16" s="110"/>
+      <c r="N16" s="105"/>
     </row>
     <row r="17" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="102"/>
-      <c r="B17" s="106"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="106"/>
-      <c r="M17" s="108" t="s">
+      <c r="A17" s="97"/>
+      <c r="B17" s="101"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="101"/>
+      <c r="M17" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="N17" s="110"/>
+      <c r="N17" s="105"/>
     </row>
     <row r="18" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="102"/>
-      <c r="B18" s="106"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="106"/>
-      <c r="M18" s="108" t="s">
+      <c r="A18" s="97"/>
+      <c r="B18" s="101"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="101"/>
+      <c r="M18" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="N18" s="110"/>
+      <c r="N18" s="105"/>
     </row>
     <row r="19" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="102"/>
-      <c r="B19" s="106"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="106"/>
-      <c r="M19" s="108" t="s">
+      <c r="A19" s="97"/>
+      <c r="B19" s="101"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="101"/>
+      <c r="M19" s="103" t="s">
         <v>166</v>
       </c>
-      <c r="N19" s="110"/>
+      <c r="N19" s="105"/>
     </row>
     <row r="20" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A20" s="102"/>
-      <c r="B20" s="106"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="106"/>
-      <c r="M20" s="108" t="s">
+      <c r="A20" s="97"/>
+      <c r="B20" s="101"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="101"/>
+      <c r="M20" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="N20" s="110"/>
+      <c r="N20" s="105"/>
     </row>
     <row r="21" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M21" s="108" t="s">
+      <c r="M21" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="N21" s="110"/>
+      <c r="N21" s="105"/>
     </row>
     <row r="22" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M22" s="108" t="s">
+      <c r="M22" s="103" t="s">
         <v>169</v>
       </c>
-      <c r="N22" s="110"/>
+      <c r="N22" s="105"/>
     </row>
     <row r="23" spans="1:14" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="M23" s="109" t="s">
+      <c r="M23" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="N23" s="111">
+      <c r="N23" s="106">
         <f>SUM(N9:N22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M24" s="109" t="s">
+      <c r="M24" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="N24" s="107">
+      <c r="N24" s="102">
         <f>(N23*0.01)+0.65</f>
         <v>0.65</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M25" s="109" t="s">
+      <c r="M25" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="N25" s="112">
+      <c r="N25" s="107">
         <f>K16*N24</f>
         <v>9.1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M26" s="109" t="s">
+      <c r="M26" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="N26" s="113">
+      <c r="N26" s="108">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="M27" s="114" t="s">
+      <c r="M27" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="N27" s="115">
+      <c r="N27" s="110">
         <f>N25*N26</f>
         <v>172.9</v>
       </c>
@@ -11312,7 +11328,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11334,77 +11350,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="195" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
     </row>
     <row r="2" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="201" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="E3" s="194" t="s">
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="E3" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="134">
+      <c r="B4" s="129">
         <f>'#Estimativa-APF#'!$N$27</f>
         <v>172.9</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="206" t="s">
+      <c r="F4" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206" t="s">
+      <c r="G4" s="200"/>
+      <c r="H4" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206" t="s">
+      <c r="I4" s="200"/>
+      <c r="J4" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206" t="s">
+      <c r="K4" s="200"/>
+      <c r="L4" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="206"/>
-      <c r="N4" s="120"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="115"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="53" t="s">
         <v>189</v>
       </c>
       <c r="B5" s="26">
@@ -11413,111 +11429,111 @@
       <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="208"/>
-      <c r="F5" s="206" t="s">
+      <c r="E5" s="202"/>
+      <c r="F5" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206" t="s">
+      <c r="G5" s="200"/>
+      <c r="H5" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206" t="s">
+      <c r="I5" s="200"/>
+      <c r="J5" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206" t="s">
+      <c r="K5" s="200"/>
+      <c r="L5" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="206"/>
+      <c r="M5" s="200"/>
       <c r="N5" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="135">
+      <c r="B6" s="130">
         <f>B4+(B4*B5)</f>
         <v>172.9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="208"/>
-      <c r="F6" s="116">
+      <c r="E6" s="202"/>
+      <c r="F6" s="111">
         <f>B6*G6</f>
         <v>8.6450000000000014</v>
       </c>
       <c r="G6" s="17">
         <v>0.05</v>
       </c>
-      <c r="H6" s="116">
+      <c r="H6" s="111">
         <f>B4*I6</f>
         <v>34.580000000000005</v>
       </c>
       <c r="I6" s="17">
         <v>0.2</v>
       </c>
-      <c r="J6" s="116">
+      <c r="J6" s="111">
         <f>B4*K6</f>
-        <v>112.38500000000001</v>
+        <v>103.74</v>
       </c>
       <c r="K6" s="17">
-        <v>0.65</v>
-      </c>
-      <c r="L6" s="116">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="111">
         <f>B4*M6</f>
-        <v>17.290000000000003</v>
+        <v>25.934999999999999</v>
       </c>
       <c r="M6" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="N6" s="116"/>
+        <v>0.15</v>
+      </c>
+      <c r="N6" s="111"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="8"/>
       <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="116">
+      <c r="F7" s="111">
         <f>F6*G7</f>
         <v>4.7547500000000014</v>
       </c>
       <c r="G7" s="17">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H7" s="116">
+      <c r="H7" s="111">
         <f>H6*I7</f>
         <v>10.374000000000001</v>
       </c>
       <c r="I7" s="17">
         <v>0.3</v>
       </c>
-      <c r="J7" s="116">
+      <c r="J7" s="111">
         <f>J6*K7</f>
-        <v>13.4862</v>
+        <v>15.560999999999998</v>
       </c>
       <c r="K7" s="17">
-        <v>0.12</v>
-      </c>
-      <c r="L7" s="116">
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="111">
         <f>L6*M7</f>
-        <v>0.86450000000000016</v>
+        <v>1.2967500000000001</v>
       </c>
       <c r="M7" s="17">
         <v>0.05</v>
       </c>
-      <c r="N7" s="119">
+      <c r="N7" s="114">
         <f>SUM(F7,H7,J7,L7)</f>
-        <v>29.47945</v>
+        <v>31.986499999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -11525,7 +11541,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>29</v>
@@ -11533,83 +11549,83 @@
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="116">
+      <c r="F8" s="111">
         <f>F6*G8</f>
         <v>1.2967500000000001</v>
       </c>
       <c r="G8" s="17">
         <v>0.15</v>
       </c>
-      <c r="H8" s="116">
+      <c r="H8" s="111">
         <f>H6*I8</f>
         <v>6.9160000000000013</v>
       </c>
       <c r="I8" s="17">
         <v>0.2</v>
       </c>
-      <c r="J8" s="116">
+      <c r="J8" s="111">
         <f>J6*K8</f>
-        <v>11.238500000000002</v>
+        <v>10.374000000000001</v>
       </c>
       <c r="K8" s="17">
         <v>0.1</v>
       </c>
-      <c r="L8" s="116">
+      <c r="L8" s="111">
         <f>L6*M8</f>
-        <v>0.86450000000000016</v>
+        <v>1.2967500000000001</v>
       </c>
       <c r="M8" s="17">
         <v>0.05</v>
       </c>
-      <c r="N8" s="119">
+      <c r="N8" s="114">
         <f t="shared" ref="N8:N14" si="0">SUM(F8,H8,J8,L8)</f>
-        <v>20.315750000000001</v>
+        <v>19.883500000000002</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="15">
         <v>2</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="116">
+      <c r="F9" s="111">
         <f>F6*G9</f>
         <v>0.17290000000000003</v>
       </c>
       <c r="G9" s="17">
         <v>0.02</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9" s="111">
         <f>H6*I9</f>
         <v>6.9160000000000013</v>
       </c>
       <c r="I9" s="17">
         <v>0.2</v>
       </c>
-      <c r="J9" s="116">
+      <c r="J9" s="111">
         <f>J6*K9</f>
-        <v>44.954000000000008</v>
+        <v>41.496000000000002</v>
       </c>
       <c r="K9" s="17">
         <v>0.4</v>
       </c>
-      <c r="L9" s="116">
+      <c r="L9" s="111">
         <f>L6*M9</f>
-        <v>2.5935000000000001</v>
+        <v>3.8902499999999995</v>
       </c>
       <c r="M9" s="17">
         <v>0.15</v>
       </c>
-      <c r="N9" s="119">
+      <c r="N9" s="114">
         <f t="shared" si="0"/>
-        <v>54.636400000000009</v>
+        <v>52.475150000000006</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -11618,7 +11634,7 @@
       </c>
       <c r="B10" s="11">
         <f>(B7*B8)*B9</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>13</v>
@@ -11626,35 +11642,35 @@
       <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="116">
+      <c r="F10" s="111">
         <f>F6*G10</f>
         <v>0.43225000000000008</v>
       </c>
       <c r="G10" s="17">
         <v>0.05</v>
       </c>
-      <c r="H10" s="116">
+      <c r="H10" s="111">
         <f>H6*I10</f>
         <v>2.7664000000000004</v>
       </c>
       <c r="I10" s="17">
         <v>0.08</v>
       </c>
-      <c r="J10" s="116">
+      <c r="J10" s="111">
         <f>J6*K10</f>
-        <v>11.238500000000002</v>
+        <v>10.374000000000001</v>
       </c>
       <c r="K10" s="17">
         <v>0.1</v>
       </c>
-      <c r="L10" s="116">
+      <c r="L10" s="111">
         <f>L6*M10</f>
-        <v>1.7290000000000003</v>
+        <v>2.5935000000000001</v>
       </c>
       <c r="M10" s="17">
         <v>0.1</v>
       </c>
-      <c r="N10" s="119">
+      <c r="N10" s="114">
         <f t="shared" si="0"/>
         <v>16.166150000000002</v>
       </c>
@@ -11663,9 +11679,9 @@
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="44">
         <f>B6/B10*2</f>
-        <v>4.3224999999999998</v>
+        <v>8.6449999999999996</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
@@ -11673,94 +11689,94 @@
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="116">
+      <c r="F11" s="111">
         <f>F6*G11</f>
         <v>0</v>
       </c>
       <c r="G11" s="17">
         <v>0</v>
       </c>
-      <c r="H11" s="116">
+      <c r="H11" s="111">
         <f>H6*I11</f>
         <v>0.6916000000000001</v>
       </c>
       <c r="I11" s="17">
         <v>0.02</v>
       </c>
-      <c r="J11" s="116">
+      <c r="J11" s="111">
         <f>J6*K11</f>
-        <v>5.619250000000001</v>
+        <v>5.1870000000000003</v>
       </c>
       <c r="K11" s="17">
         <v>0.05</v>
       </c>
-      <c r="L11" s="116">
+      <c r="L11" s="111">
         <f>L6*M11</f>
-        <v>1.7290000000000003</v>
+        <v>2.5935000000000001</v>
       </c>
       <c r="M11" s="17">
         <v>0.1</v>
       </c>
-      <c r="N11" s="119">
+      <c r="N11" s="114">
         <f t="shared" si="0"/>
-        <v>8.0398500000000013</v>
+        <v>8.4721000000000011</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="44">
         <f>B11/4</f>
-        <v>1.0806249999999999</v>
+        <v>2.1612499999999999</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="117">
+      <c r="F12" s="112">
         <f>SUM(F7:F11)</f>
         <v>6.6566500000000017</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="51">
         <f t="shared" ref="G12:M12" si="1">SUM(G7:G11)</f>
         <v>0.77000000000000013</v>
       </c>
-      <c r="H12" s="117">
+      <c r="H12" s="112">
         <f t="shared" si="1"/>
         <v>27.664000000000005</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="51">
         <f t="shared" si="1"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="J12" s="117">
+      <c r="J12" s="112">
         <f t="shared" si="1"/>
-        <v>86.536450000000002</v>
-      </c>
-      <c r="K12" s="54">
+        <v>82.99199999999999</v>
+      </c>
+      <c r="K12" s="51">
         <f t="shared" si="1"/>
-        <v>0.77</v>
-      </c>
-      <c r="L12" s="117">
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="112">
         <f t="shared" si="1"/>
-        <v>7.7805000000000009</v>
-      </c>
-      <c r="M12" s="54">
+        <v>11.67075</v>
+      </c>
+      <c r="M12" s="51">
         <f t="shared" si="1"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="N12" s="53"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="49">
         <f>B11/B9</f>
-        <v>2.1612499999999999</v>
+        <v>4.3224999999999998</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>50</v>
@@ -11768,124 +11784,124 @@
       <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="116">
+      <c r="F13" s="111">
         <f>F6*G13</f>
         <v>0.25935000000000002</v>
       </c>
       <c r="G13" s="17">
         <v>0.03</v>
       </c>
-      <c r="H13" s="116">
+      <c r="H13" s="111">
         <f>H6*I13</f>
         <v>2.7664000000000004</v>
       </c>
       <c r="I13" s="17">
         <v>0.08</v>
       </c>
-      <c r="J13" s="116">
+      <c r="J13" s="111">
         <f>J6*K13</f>
-        <v>14.610050000000001</v>
+        <v>10.374000000000001</v>
       </c>
       <c r="K13" s="17">
-        <v>0.13</v>
-      </c>
-      <c r="L13" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="111">
         <f>L6*M13</f>
-        <v>5.1870000000000003</v>
+        <v>7.7804999999999991</v>
       </c>
       <c r="M13" s="17">
         <v>0.3</v>
       </c>
-      <c r="N13" s="119">
+      <c r="N13" s="114">
         <f t="shared" si="0"/>
-        <v>22.822800000000004</v>
+        <v>21.180250000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="116">
+      <c r="F14" s="111">
         <f>F6*G14</f>
         <v>1.7290000000000003</v>
       </c>
       <c r="G14" s="17">
         <v>0.2</v>
       </c>
-      <c r="H14" s="116">
+      <c r="H14" s="111">
         <f>H6*I14</f>
         <v>4.1496000000000004</v>
       </c>
       <c r="I14" s="17">
         <v>0.12</v>
       </c>
-      <c r="J14" s="116">
+      <c r="J14" s="111">
         <f>J6*K14</f>
-        <v>11.238500000000002</v>
+        <v>10.374000000000001</v>
       </c>
       <c r="K14" s="17">
         <v>0.1</v>
       </c>
-      <c r="L14" s="116">
+      <c r="L14" s="111">
         <f>L6*M14</f>
-        <v>4.3225000000000007</v>
+        <v>6.4837499999999997</v>
       </c>
       <c r="M14" s="17">
         <v>0.25</v>
       </c>
-      <c r="N14" s="119">
+      <c r="N14" s="114">
         <f t="shared" si="0"/>
-        <v>21.439600000000002</v>
+        <v>22.736350000000002</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="112">
         <f>SUM(F13:F14)</f>
         <v>1.9883500000000003</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="51">
         <f t="shared" ref="G15:M15" si="2">SUM(G13:G14)</f>
         <v>0.23</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="112">
         <f t="shared" si="2"/>
         <v>6.9160000000000004</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="51">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="112">
         <f t="shared" si="2"/>
-        <v>25.848550000000003</v>
-      </c>
-      <c r="K15" s="54">
+        <v>20.748000000000001</v>
+      </c>
+      <c r="K15" s="51">
         <f t="shared" si="2"/>
-        <v>0.23</v>
-      </c>
-      <c r="L15" s="117">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="112">
         <f t="shared" si="2"/>
-        <v>9.509500000000001</v>
-      </c>
-      <c r="M15" s="54">
+        <v>14.264249999999999</v>
+      </c>
+      <c r="M15" s="51">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N15" s="53"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="207"/>
-      <c r="C16" s="207"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="201"/>
       <c r="E16" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="118">
+      <c r="F16" s="113">
         <f>F12+F15</f>
         <v>8.6450000000000014</v>
       </c>
@@ -11893,7 +11909,7 @@
         <f t="shared" ref="G16:M16" si="3">G12+G15</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H16" s="118">
+      <c r="H16" s="113">
         <f t="shared" si="3"/>
         <v>34.580000000000005</v>
       </c>
@@ -11901,29 +11917,29 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J16" s="118">
+      <c r="J16" s="113">
         <f t="shared" si="3"/>
-        <v>112.38500000000001</v>
+        <v>103.74</v>
       </c>
       <c r="K16" s="28">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L16" s="118">
+      <c r="L16" s="113">
         <f t="shared" si="3"/>
-        <v>17.290000000000003</v>
+        <v>25.934999999999999</v>
       </c>
       <c r="M16" s="28">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N16" s="121">
+      <c r="N16" s="116">
         <f>SUM(N7:N11,N13,N14)</f>
         <v>172.90000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="16">
@@ -11933,7 +11949,7 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="5">
@@ -11945,7 +11961,7 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="26">
@@ -11955,7 +11971,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="6">
@@ -11978,7 +11994,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="26">
@@ -11988,7 +12004,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="7">
